--- a/datos/Radiacion.xlsx
+++ b/datos/Radiacion.xlsx
@@ -22223,64 +22223,64 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>149.32</v>
+        <v>74.66</v>
       </c>
       <c r="C134" t="n">
-        <v>171.54</v>
+        <v>85.77</v>
       </c>
       <c r="D134" t="n">
-        <v>170.84</v>
+        <v>85.42</v>
       </c>
       <c r="E134" t="n">
-        <v>167.06</v>
+        <v>83.53</v>
       </c>
       <c r="F134" t="n">
-        <v>133.98</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>129.86</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>142.26</v>
+        <v>71.13</v>
       </c>
       <c r="I134" t="n">
-        <v>142.78</v>
+        <v>71.39</v>
       </c>
       <c r="J134" t="n">
-        <v>167.58</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>119.52</v>
+        <v>59.76</v>
       </c>
       <c r="L134" t="n">
-        <v>130.2</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="M134" t="n">
-        <v>115.56</v>
+        <v>57.78</v>
       </c>
       <c r="N134" t="n">
-        <v>130.88</v>
+        <v>65.44</v>
       </c>
       <c r="O134" t="n">
-        <v>142.94</v>
+        <v>71.47</v>
       </c>
       <c r="P134" t="n">
-        <v>131.92</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="Q134" t="n">
-        <v>125.56</v>
+        <v>62.78</v>
       </c>
       <c r="R134" t="n">
-        <v>151.56</v>
+        <v>75.78</v>
       </c>
       <c r="S134" t="n">
-        <v>153.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="T134" t="n">
-        <v>149.32</v>
+        <v>74.66</v>
       </c>
       <c r="U134" t="n">
-        <v>140.88</v>
+        <v>70.44</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
@@ -22289,49 +22289,49 @@
         <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>173.78</v>
+        <v>86.89</v>
       </c>
       <c r="Y134" t="n">
         <v>0</v>
       </c>
       <c r="Z134" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AA134" t="n">
-        <v>99.88</v>
+        <v>49.94</v>
       </c>
       <c r="AB134" t="n">
-        <v>122.46</v>
+        <v>61.23</v>
       </c>
       <c r="AC134" t="n">
-        <v>147.76</v>
+        <v>73.88</v>
       </c>
       <c r="AD134" t="n">
-        <v>125.56</v>
+        <v>62.78</v>
       </c>
       <c r="AE134" t="n">
-        <v>114.02</v>
+        <v>57.01</v>
       </c>
       <c r="AF134" t="n">
-        <v>116.42</v>
+        <v>58.21</v>
       </c>
       <c r="AG134" t="n">
-        <v>114.36</v>
+        <v>57.18</v>
       </c>
       <c r="AH134" t="n">
-        <v>96.62</v>
+        <v>48.31</v>
       </c>
       <c r="AI134" t="n">
-        <v>127.62</v>
+        <v>63.81</v>
       </c>
       <c r="AJ134" t="n">
-        <v>112.98</v>
+        <v>56.49</v>
       </c>
       <c r="AK134" t="n">
-        <v>112.46</v>
+        <v>56.23</v>
       </c>
       <c r="AL134" t="n">
-        <v>120.22</v>
+        <v>60.11</v>
       </c>
       <c r="AM134" t="n">
         <v>0</v>
@@ -22346,10 +22346,10 @@
         <v>0</v>
       </c>
       <c r="AQ134" t="n">
-        <v>122.96</v>
+        <v>61.48</v>
       </c>
       <c r="AR134" t="n">
-        <v>134.68</v>
+        <v>67.34</v>
       </c>
       <c r="AS134" t="n">
         <v>0</v>
@@ -22358,25 +22358,25 @@
         <v>0</v>
       </c>
       <c r="AU134" t="n">
-        <v>95.23999999999999</v>
+        <v>47.62</v>
       </c>
       <c r="AV134" t="n">
-        <v>105.92</v>
+        <v>52.96</v>
       </c>
       <c r="AW134" t="n">
         <v>0</v>
       </c>
       <c r="AX134" t="n">
-        <v>74.73999999999999</v>
+        <v>37.37</v>
       </c>
       <c r="AY134" t="n">
-        <v>58.72</v>
+        <v>29.36</v>
       </c>
       <c r="AZ134" t="n">
-        <v>77.68000000000001</v>
+        <v>38.84</v>
       </c>
       <c r="BA134" t="n">
-        <v>86.12</v>
+        <v>43.06</v>
       </c>
     </row>
     <row r="135">
@@ -22386,64 +22386,64 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>187.14</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>206.26</v>
+        <v>103.13</v>
       </c>
       <c r="D135" t="n">
-        <v>215.76</v>
+        <v>107.88</v>
       </c>
       <c r="E135" t="n">
-        <v>187.6</v>
+        <v>93.8</v>
       </c>
       <c r="F135" t="n">
-        <v>174.38</v>
+        <v>87.19</v>
       </c>
       <c r="G135" t="n">
-        <v>149.64</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>180.76</v>
+        <v>90.38</v>
       </c>
       <c r="I135" t="n">
-        <v>162.4</v>
+        <v>81.2</v>
       </c>
       <c r="J135" t="n">
-        <v>179.52</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>162.24</v>
+        <v>81.12</v>
       </c>
       <c r="L135" t="n">
-        <v>156.34</v>
+        <v>78.17</v>
       </c>
       <c r="M135" t="n">
-        <v>149.34</v>
+        <v>74.67</v>
       </c>
       <c r="N135" t="n">
-        <v>180.76</v>
+        <v>90.38</v>
       </c>
       <c r="O135" t="n">
-        <v>178.42</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="P135" t="n">
-        <v>174.84</v>
+        <v>87.42</v>
       </c>
       <c r="Q135" t="n">
-        <v>158.82</v>
+        <v>79.41</v>
       </c>
       <c r="R135" t="n">
-        <v>162.72</v>
+        <v>81.36</v>
       </c>
       <c r="S135" t="n">
-        <v>158.52</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="T135" t="n">
-        <v>185.74</v>
+        <v>92.87</v>
       </c>
       <c r="U135" t="n">
-        <v>173.14</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="V135" t="n">
         <v>0</v>
@@ -22452,49 +22452,49 @@
         <v>0</v>
       </c>
       <c r="X135" t="n">
-        <v>205.02</v>
+        <v>102.51</v>
       </c>
       <c r="Y135" t="n">
         <v>0</v>
       </c>
       <c r="Z135" t="n">
-        <v>156.18</v>
+        <v>78.09</v>
       </c>
       <c r="AA135" t="n">
-        <v>125.68</v>
+        <v>62.84</v>
       </c>
       <c r="AB135" t="n">
-        <v>149.64</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="AC135" t="n">
-        <v>177.64</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="AD135" t="n">
-        <v>140.78</v>
+        <v>70.39</v>
       </c>
       <c r="AE135" t="n">
-        <v>129.42</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="AF135" t="n">
-        <v>134.24</v>
+        <v>67.12</v>
       </c>
       <c r="AG135" t="n">
-        <v>135.64</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="AH135" t="n">
-        <v>136.74</v>
+        <v>68.37</v>
       </c>
       <c r="AI135" t="n">
-        <v>153.68</v>
+        <v>76.84</v>
       </c>
       <c r="AJ135" t="n">
-        <v>137.04</v>
+        <v>68.52</v>
       </c>
       <c r="AK135" t="n">
-        <v>133.46</v>
+        <v>66.73</v>
       </c>
       <c r="AL135" t="n">
-        <v>161.16</v>
+        <v>80.58</v>
       </c>
       <c r="AM135" t="n">
         <v>0</v>
@@ -22509,10 +22509,10 @@
         <v>0</v>
       </c>
       <c r="AQ135" t="n">
-        <v>146.84</v>
+        <v>73.42</v>
       </c>
       <c r="AR135" t="n">
-        <v>148.08</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="AS135" t="n">
         <v>0</v>
@@ -22521,25 +22521,25 @@
         <v>0</v>
       </c>
       <c r="AU135" t="n">
-        <v>118.54</v>
+        <v>59.27</v>
       </c>
       <c r="AV135" t="n">
-        <v>120.24</v>
+        <v>60.12</v>
       </c>
       <c r="AW135" t="n">
         <v>0</v>
       </c>
       <c r="AX135" t="n">
-        <v>106.08</v>
+        <v>53.04</v>
       </c>
       <c r="AY135" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AZ135" t="n">
-        <v>109.82</v>
+        <v>54.91</v>
       </c>
       <c r="BA135" t="n">
-        <v>115.74</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="136">
@@ -22549,64 +22549,64 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>301.9</v>
+        <v>150.95</v>
       </c>
       <c r="C136" t="n">
-        <v>299.5</v>
+        <v>149.75</v>
       </c>
       <c r="D136" t="n">
-        <v>287.26</v>
+        <v>143.63</v>
       </c>
       <c r="E136" t="n">
-        <v>298.12</v>
+        <v>149.06</v>
       </c>
       <c r="F136" t="n">
-        <v>303.62</v>
+        <v>151.81</v>
       </c>
       <c r="G136" t="n">
-        <v>290.72</v>
+        <v>145.36</v>
       </c>
       <c r="H136" t="n">
-        <v>309.66</v>
+        <v>154.83</v>
       </c>
       <c r="I136" t="n">
-        <v>307.08</v>
+        <v>153.54</v>
       </c>
       <c r="J136" t="n">
-        <v>279.86</v>
+        <v>139.93</v>
       </c>
       <c r="K136" t="n">
-        <v>319.98</v>
+        <v>159.99</v>
       </c>
       <c r="L136" t="n">
-        <v>312.06</v>
+        <v>156.03</v>
       </c>
       <c r="M136" t="n">
-        <v>280.2</v>
+        <v>140.1</v>
       </c>
       <c r="N136" t="n">
-        <v>285.2</v>
+        <v>142.6</v>
       </c>
       <c r="O136" t="n">
-        <v>271.6</v>
+        <v>135.8</v>
       </c>
       <c r="P136" t="n">
-        <v>283.82</v>
+        <v>141.91</v>
       </c>
       <c r="Q136" t="n">
-        <v>273.14</v>
+        <v>136.57</v>
       </c>
       <c r="R136" t="n">
-        <v>272.98</v>
+        <v>136.49</v>
       </c>
       <c r="S136" t="n">
-        <v>258.16</v>
+        <v>129.08</v>
       </c>
       <c r="T136" t="n">
-        <v>256.26</v>
+        <v>128.13</v>
       </c>
       <c r="U136" t="n">
-        <v>264.36</v>
+        <v>132.18</v>
       </c>
       <c r="V136" t="n">
         <v>0</v>
@@ -22615,49 +22615,49 @@
         <v>0</v>
       </c>
       <c r="X136" t="n">
-        <v>276.94</v>
+        <v>138.47</v>
       </c>
       <c r="Y136" t="n">
         <v>0</v>
       </c>
       <c r="Z136" t="n">
-        <v>268.5</v>
+        <v>134.25</v>
       </c>
       <c r="AA136" t="n">
-        <v>249.2</v>
+        <v>124.6</v>
       </c>
       <c r="AB136" t="n">
-        <v>282.1</v>
+        <v>141.05</v>
       </c>
       <c r="AC136" t="n">
-        <v>278.48</v>
+        <v>139.24</v>
       </c>
       <c r="AD136" t="n">
-        <v>289.34</v>
+        <v>144.67</v>
       </c>
       <c r="AE136" t="n">
-        <v>279.68</v>
+        <v>139.84</v>
       </c>
       <c r="AF136" t="n">
-        <v>295.7</v>
+        <v>147.85</v>
       </c>
       <c r="AG136" t="n">
-        <v>301.9</v>
+        <v>150.95</v>
       </c>
       <c r="AH136" t="n">
-        <v>278.32</v>
+        <v>139.16</v>
       </c>
       <c r="AI136" t="n">
-        <v>301.22</v>
+        <v>150.61</v>
       </c>
       <c r="AJ136" t="n">
-        <v>261.6</v>
+        <v>130.8</v>
       </c>
       <c r="AK136" t="n">
-        <v>263.84</v>
+        <v>131.92</v>
       </c>
       <c r="AL136" t="n">
-        <v>260.4</v>
+        <v>130.2</v>
       </c>
       <c r="AM136" t="n">
         <v>0</v>
@@ -22672,10 +22672,10 @@
         <v>0</v>
       </c>
       <c r="AQ136" t="n">
-        <v>277.62</v>
+        <v>138.81</v>
       </c>
       <c r="AR136" t="n">
-        <v>268.32</v>
+        <v>134.16</v>
       </c>
       <c r="AS136" t="n">
         <v>0</v>
@@ -22684,25 +22684,25 @@
         <v>0</v>
       </c>
       <c r="AU136" t="n">
-        <v>234.06</v>
+        <v>117.03</v>
       </c>
       <c r="AV136" t="n">
-        <v>257.64</v>
+        <v>128.82</v>
       </c>
       <c r="AW136" t="n">
         <v>0</v>
       </c>
       <c r="AX136" t="n">
-        <v>230.78</v>
+        <v>115.39</v>
       </c>
       <c r="AY136" t="n">
-        <v>219.92</v>
+        <v>109.96</v>
       </c>
       <c r="AZ136" t="n">
-        <v>233.02</v>
+        <v>116.51</v>
       </c>
       <c r="BA136" t="n">
-        <v>245.42</v>
+        <v>122.71</v>
       </c>
     </row>
     <row r="137">
@@ -22712,64 +22712,64 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>312.84</v>
+        <v>156.42</v>
       </c>
       <c r="C137" t="n">
-        <v>308.66</v>
+        <v>154.33</v>
       </c>
       <c r="D137" t="n">
-        <v>328.16</v>
+        <v>164.08</v>
       </c>
       <c r="E137" t="n">
-        <v>287.84</v>
+        <v>143.92</v>
       </c>
       <c r="F137" t="n">
-        <v>311.66</v>
+        <v>155.83</v>
       </c>
       <c r="G137" t="n">
-        <v>305.66</v>
+        <v>152.83</v>
       </c>
       <c r="H137" t="n">
-        <v>339.66</v>
+        <v>169.83</v>
       </c>
       <c r="I137" t="n">
-        <v>316.34</v>
+        <v>158.17</v>
       </c>
       <c r="J137" t="n">
-        <v>288.84</v>
+        <v>144.42</v>
       </c>
       <c r="K137" t="n">
-        <v>334.16</v>
+        <v>167.08</v>
       </c>
       <c r="L137" t="n">
-        <v>313.16</v>
+        <v>156.58</v>
       </c>
       <c r="M137" t="n">
-        <v>295</v>
+        <v>147.5</v>
       </c>
       <c r="N137" t="n">
-        <v>306.66</v>
+        <v>153.33</v>
       </c>
       <c r="O137" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="P137" t="n">
-        <v>283.34</v>
+        <v>141.67</v>
       </c>
       <c r="Q137" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="R137" t="n">
-        <v>252.16</v>
+        <v>126.08</v>
       </c>
       <c r="S137" t="n">
-        <v>229.5</v>
+        <v>114.75</v>
       </c>
       <c r="T137" t="n">
-        <v>247.5</v>
+        <v>123.75</v>
       </c>
       <c r="U137" t="n">
-        <v>282.16</v>
+        <v>141.08</v>
       </c>
       <c r="V137" t="n">
         <v>0</v>
@@ -22778,49 +22778,49 @@
         <v>0</v>
       </c>
       <c r="X137" t="n">
-        <v>325.5</v>
+        <v>162.75</v>
       </c>
       <c r="Y137" t="n">
         <v>0</v>
       </c>
       <c r="Z137" t="n">
-        <v>272.5</v>
+        <v>136.25</v>
       </c>
       <c r="AA137" t="n">
-        <v>242.66</v>
+        <v>121.33</v>
       </c>
       <c r="AB137" t="n">
-        <v>282.66</v>
+        <v>141.33</v>
       </c>
       <c r="AC137" t="n">
-        <v>295.84</v>
+        <v>147.92</v>
       </c>
       <c r="AD137" t="n">
-        <v>297.66</v>
+        <v>148.83</v>
       </c>
       <c r="AE137" t="n">
-        <v>267.34</v>
+        <v>133.67</v>
       </c>
       <c r="AF137" t="n">
-        <v>295.84</v>
+        <v>147.92</v>
       </c>
       <c r="AG137" t="n">
-        <v>286.16</v>
+        <v>143.08</v>
       </c>
       <c r="AH137" t="n">
-        <v>287.16</v>
+        <v>143.58</v>
       </c>
       <c r="AI137" t="n">
-        <v>309.5</v>
+        <v>154.75</v>
       </c>
       <c r="AJ137" t="n">
-        <v>294.66</v>
+        <v>147.33</v>
       </c>
       <c r="AK137" t="n">
-        <v>289.5</v>
+        <v>144.75</v>
       </c>
       <c r="AL137" t="n">
-        <v>276.5</v>
+        <v>138.25</v>
       </c>
       <c r="AM137" t="n">
         <v>0</v>
@@ -22835,10 +22835,10 @@
         <v>0</v>
       </c>
       <c r="AQ137" t="n">
-        <v>302.5</v>
+        <v>151.25</v>
       </c>
       <c r="AR137" t="n">
-        <v>282.34</v>
+        <v>141.17</v>
       </c>
       <c r="AS137" t="n">
         <v>0</v>
@@ -22847,25 +22847,25 @@
         <v>0</v>
       </c>
       <c r="AU137" t="n">
-        <v>275.34</v>
+        <v>137.67</v>
       </c>
       <c r="AV137" t="n">
-        <v>273.66</v>
+        <v>136.83</v>
       </c>
       <c r="AW137" t="n">
         <v>0</v>
       </c>
       <c r="AX137" t="n">
-        <v>281.5</v>
+        <v>140.75</v>
       </c>
       <c r="AY137" t="n">
-        <v>265.66</v>
+        <v>132.83</v>
       </c>
       <c r="AZ137" t="n">
-        <v>267.66</v>
+        <v>133.83</v>
       </c>
       <c r="BA137" t="n">
-        <v>287.84</v>
+        <v>143.92</v>
       </c>
     </row>
     <row r="138">
@@ -22875,64 +22875,64 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>441.4</v>
+        <v>220.7</v>
       </c>
       <c r="C138" t="n">
-        <v>437.96</v>
+        <v>218.98</v>
       </c>
       <c r="D138" t="n">
-        <v>419.7</v>
+        <v>209.85</v>
       </c>
       <c r="E138" t="n">
-        <v>424.36</v>
+        <v>212.18</v>
       </c>
       <c r="F138" t="n">
-        <v>441.06</v>
+        <v>220.53</v>
       </c>
       <c r="G138" t="n">
-        <v>448.3</v>
+        <v>224.15</v>
       </c>
       <c r="H138" t="n">
-        <v>449.32</v>
+        <v>224.66</v>
       </c>
       <c r="I138" t="n">
-        <v>465.34</v>
+        <v>232.67</v>
       </c>
       <c r="J138" t="n">
-        <v>442.62</v>
+        <v>221.31</v>
       </c>
       <c r="K138" t="n">
-        <v>450.36</v>
+        <v>225.18</v>
       </c>
       <c r="L138" t="n">
-        <v>447.26</v>
+        <v>223.63</v>
       </c>
       <c r="M138" t="n">
-        <v>406.44</v>
+        <v>203.22</v>
       </c>
       <c r="N138" t="n">
-        <v>432.46</v>
+        <v>216.23</v>
       </c>
       <c r="O138" t="n">
-        <v>442.96</v>
+        <v>221.48</v>
       </c>
       <c r="P138" t="n">
-        <v>421.94</v>
+        <v>210.97</v>
       </c>
       <c r="Q138" t="n">
-        <v>401.46</v>
+        <v>200.73</v>
       </c>
       <c r="R138" t="n">
-        <v>385.08</v>
+        <v>192.54</v>
       </c>
       <c r="S138" t="n">
-        <v>374.76</v>
+        <v>187.38</v>
       </c>
       <c r="T138" t="n">
-        <v>389.4</v>
+        <v>194.7</v>
       </c>
       <c r="U138" t="n">
-        <v>376.3</v>
+        <v>188.15</v>
       </c>
       <c r="V138" t="n">
         <v>0</v>
@@ -22941,49 +22941,49 @@
         <v>0</v>
       </c>
       <c r="X138" t="n">
-        <v>334.62</v>
+        <v>167.31</v>
       </c>
       <c r="Y138" t="n">
         <v>0</v>
       </c>
       <c r="Z138" t="n">
-        <v>414.72</v>
+        <v>207.36</v>
       </c>
       <c r="AA138" t="n">
-        <v>333.94</v>
+        <v>166.97</v>
       </c>
       <c r="AB138" t="n">
-        <v>385.6</v>
+        <v>192.8</v>
       </c>
       <c r="AC138" t="n">
-        <v>389.4</v>
+        <v>194.7</v>
       </c>
       <c r="AD138" t="n">
-        <v>407.82</v>
+        <v>203.91</v>
       </c>
       <c r="AE138" t="n">
-        <v>408.86</v>
+        <v>204.43</v>
       </c>
       <c r="AF138" t="n">
-        <v>408.52</v>
+        <v>204.26</v>
       </c>
       <c r="AG138" t="n">
-        <v>403.68</v>
+        <v>201.84</v>
       </c>
       <c r="AH138" t="n">
-        <v>380.96</v>
+        <v>190.48</v>
       </c>
       <c r="AI138" t="n">
-        <v>413.68</v>
+        <v>206.84</v>
       </c>
       <c r="AJ138" t="n">
-        <v>399.04</v>
+        <v>199.52</v>
       </c>
       <c r="AK138" t="n">
-        <v>378.54</v>
+        <v>189.27</v>
       </c>
       <c r="AL138" t="n">
-        <v>396.98</v>
+        <v>198.49</v>
       </c>
       <c r="AM138" t="n">
         <v>0</v>
@@ -22998,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="AQ138" t="n">
-        <v>401.96</v>
+        <v>200.98</v>
       </c>
       <c r="AR138" t="n">
-        <v>393.36</v>
+        <v>196.68</v>
       </c>
       <c r="AS138" t="n">
         <v>0</v>
@@ -23010,25 +23010,25 @@
         <v>0</v>
       </c>
       <c r="AU138" t="n">
-        <v>357.02</v>
+        <v>178.51</v>
       </c>
       <c r="AV138" t="n">
-        <v>351.5</v>
+        <v>175.75</v>
       </c>
       <c r="AW138" t="n">
         <v>0</v>
       </c>
       <c r="AX138" t="n">
-        <v>331.88</v>
+        <v>165.94</v>
       </c>
       <c r="AY138" t="n">
-        <v>328.42</v>
+        <v>164.21</v>
       </c>
       <c r="AZ138" t="n">
-        <v>366.66</v>
+        <v>183.33</v>
       </c>
       <c r="BA138" t="n">
-        <v>346.16</v>
+        <v>173.08</v>
       </c>
     </row>
     <row r="139">
@@ -23038,64 +23038,64 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>453.34</v>
+        <v>226.67</v>
       </c>
       <c r="C139" t="n">
-        <v>459.5</v>
+        <v>229.75</v>
       </c>
       <c r="D139" t="n">
-        <v>435.66</v>
+        <v>217.83</v>
       </c>
       <c r="E139" t="n">
-        <v>441.34</v>
+        <v>220.67</v>
       </c>
       <c r="F139" t="n">
-        <v>468.16</v>
+        <v>234.08</v>
       </c>
       <c r="G139" t="n">
-        <v>453.84</v>
+        <v>226.92</v>
       </c>
       <c r="H139" t="n">
-        <v>449.66</v>
+        <v>224.83</v>
       </c>
       <c r="I139" t="n">
-        <v>442.16</v>
+        <v>221.08</v>
       </c>
       <c r="J139" t="n">
-        <v>440.66</v>
+        <v>220.33</v>
       </c>
       <c r="K139" t="n">
-        <v>439</v>
+        <v>219.5</v>
       </c>
       <c r="L139" t="n">
-        <v>445.84</v>
+        <v>222.92</v>
       </c>
       <c r="M139" t="n">
-        <v>393.34</v>
+        <v>196.67</v>
       </c>
       <c r="N139" t="n">
-        <v>429</v>
+        <v>214.5</v>
       </c>
       <c r="O139" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="P139" t="n">
-        <v>411.66</v>
+        <v>205.83</v>
       </c>
       <c r="Q139" t="n">
-        <v>413.84</v>
+        <v>206.92</v>
       </c>
       <c r="R139" t="n">
-        <v>395.34</v>
+        <v>197.67</v>
       </c>
       <c r="S139" t="n">
-        <v>370.66</v>
+        <v>185.33</v>
       </c>
       <c r="T139" t="n">
-        <v>393</v>
+        <v>196.5</v>
       </c>
       <c r="U139" t="n">
-        <v>383.5</v>
+        <v>191.75</v>
       </c>
       <c r="V139" t="n">
         <v>0</v>
@@ -23104,49 +23104,49 @@
         <v>0</v>
       </c>
       <c r="X139" t="n">
-        <v>317.5</v>
+        <v>158.75</v>
       </c>
       <c r="Y139" t="n">
         <v>0</v>
       </c>
       <c r="Z139" t="n">
-        <v>419</v>
+        <v>209.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="AB139" t="n">
-        <v>398.84</v>
+        <v>199.42</v>
       </c>
       <c r="AC139" t="n">
-        <v>426.34</v>
+        <v>213.17</v>
       </c>
       <c r="AD139" t="n">
-        <v>423.16</v>
+        <v>211.58</v>
       </c>
       <c r="AE139" t="n">
-        <v>414.5</v>
+        <v>207.25</v>
       </c>
       <c r="AF139" t="n">
-        <v>431.5</v>
+        <v>215.75</v>
       </c>
       <c r="AG139" t="n">
-        <v>403.66</v>
+        <v>201.83</v>
       </c>
       <c r="AH139" t="n">
-        <v>403.34</v>
+        <v>201.67</v>
       </c>
       <c r="AI139" t="n">
-        <v>428.84</v>
+        <v>214.42</v>
       </c>
       <c r="AJ139" t="n">
-        <v>402.66</v>
+        <v>201.33</v>
       </c>
       <c r="AK139" t="n">
-        <v>399.16</v>
+        <v>199.58</v>
       </c>
       <c r="AL139" t="n">
-        <v>412.16</v>
+        <v>206.08</v>
       </c>
       <c r="AM139" t="n">
         <v>0</v>
@@ -23161,10 +23161,10 @@
         <v>0</v>
       </c>
       <c r="AQ139" t="n">
-        <v>424.66</v>
+        <v>212.33</v>
       </c>
       <c r="AR139" t="n">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="AS139" t="n">
         <v>0</v>
@@ -23173,25 +23173,25 @@
         <v>0</v>
       </c>
       <c r="AU139" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="AV139" t="n">
-        <v>377</v>
+        <v>188.5</v>
       </c>
       <c r="AW139" t="n">
         <v>0</v>
       </c>
       <c r="AX139" t="n">
-        <v>324.34</v>
+        <v>162.17</v>
       </c>
       <c r="AY139" t="n">
-        <v>302.66</v>
+        <v>151.33</v>
       </c>
       <c r="AZ139" t="n">
-        <v>351.16</v>
+        <v>175.58</v>
       </c>
       <c r="BA139" t="n">
-        <v>350.16</v>
+        <v>175.08</v>
       </c>
     </row>
     <row r="140">
@@ -23201,64 +23201,64 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>493.76</v>
+        <v>246.88</v>
       </c>
       <c r="C140" t="n">
-        <v>490.66</v>
+        <v>245.33</v>
       </c>
       <c r="D140" t="n">
-        <v>459.14</v>
+        <v>229.57</v>
       </c>
       <c r="E140" t="n">
-        <v>465.68</v>
+        <v>232.84</v>
       </c>
       <c r="F140" t="n">
-        <v>490.32</v>
+        <v>245.16</v>
       </c>
       <c r="G140" t="n">
-        <v>492.9</v>
+        <v>246.45</v>
       </c>
       <c r="H140" t="n">
-        <v>488.6</v>
+        <v>244.3</v>
       </c>
       <c r="I140" t="n">
-        <v>498.76</v>
+        <v>249.38</v>
       </c>
       <c r="J140" t="n">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="K140" t="n">
-        <v>496.68</v>
+        <v>248.34</v>
       </c>
       <c r="L140" t="n">
-        <v>493.58</v>
+        <v>246.79</v>
       </c>
       <c r="M140" t="n">
-        <v>458.46</v>
+        <v>229.23</v>
       </c>
       <c r="N140" t="n">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="O140" t="n">
-        <v>496.86</v>
+        <v>248.43</v>
       </c>
       <c r="P140" t="n">
-        <v>475.16</v>
+        <v>237.58</v>
       </c>
       <c r="Q140" t="n">
-        <v>483.26</v>
+        <v>241.63</v>
       </c>
       <c r="R140" t="n">
-        <v>446.58</v>
+        <v>223.29</v>
       </c>
       <c r="S140" t="n">
-        <v>432.28</v>
+        <v>216.14</v>
       </c>
       <c r="T140" t="n">
-        <v>451.92</v>
+        <v>225.96</v>
       </c>
       <c r="U140" t="n">
-        <v>415.06</v>
+        <v>207.53</v>
       </c>
       <c r="V140" t="n">
         <v>0</v>
@@ -23267,49 +23267,49 @@
         <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>345.66</v>
+        <v>172.83</v>
       </c>
       <c r="Y140" t="n">
         <v>0</v>
       </c>
       <c r="Z140" t="n">
-        <v>464.14</v>
+        <v>232.07</v>
       </c>
       <c r="AA140" t="n">
-        <v>423.16</v>
+        <v>211.58</v>
       </c>
       <c r="AB140" t="n">
-        <v>459.48</v>
+        <v>229.74</v>
       </c>
       <c r="AC140" t="n">
-        <v>481.88</v>
+        <v>240.94</v>
       </c>
       <c r="AD140" t="n">
-        <v>468.1</v>
+        <v>234.05</v>
       </c>
       <c r="AE140" t="n">
-        <v>471.54</v>
+        <v>235.77</v>
       </c>
       <c r="AF140" t="n">
-        <v>478.44</v>
+        <v>239.22</v>
       </c>
       <c r="AG140" t="n">
-        <v>479.46</v>
+        <v>239.73</v>
       </c>
       <c r="AH140" t="n">
-        <v>446.22</v>
+        <v>223.11</v>
       </c>
       <c r="AI140" t="n">
-        <v>489.12</v>
+        <v>244.56</v>
       </c>
       <c r="AJ140" t="n">
-        <v>451.92</v>
+        <v>225.96</v>
       </c>
       <c r="AK140" t="n">
-        <v>431.24</v>
+        <v>215.62</v>
       </c>
       <c r="AL140" t="n">
-        <v>475.34</v>
+        <v>237.67</v>
       </c>
       <c r="AM140" t="n">
         <v>0</v>
@@ -23324,10 +23324,10 @@
         <v>0</v>
       </c>
       <c r="AQ140" t="n">
-        <v>450.54</v>
+        <v>225.27</v>
       </c>
       <c r="AR140" t="n">
-        <v>426.6</v>
+        <v>213.3</v>
       </c>
       <c r="AS140" t="n">
         <v>0</v>
@@ -23336,25 +23336,25 @@
         <v>0</v>
       </c>
       <c r="AU140" t="n">
-        <v>396.28</v>
+        <v>198.14</v>
       </c>
       <c r="AV140" t="n">
-        <v>430.9</v>
+        <v>215.45</v>
       </c>
       <c r="AW140" t="n">
         <v>0</v>
       </c>
       <c r="AX140" t="n">
-        <v>300.36</v>
+        <v>150.18</v>
       </c>
       <c r="AY140" t="n">
-        <v>323.6</v>
+        <v>161.8</v>
       </c>
       <c r="AZ140" t="n">
-        <v>378.88</v>
+        <v>189.44</v>
       </c>
       <c r="BA140" t="n">
-        <v>354.44</v>
+        <v>177.22</v>
       </c>
     </row>
     <row r="141">
@@ -23364,64 +23364,64 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>439.16</v>
+        <v>219.58</v>
       </c>
       <c r="C141" t="n">
-        <v>402.14</v>
+        <v>201.07</v>
       </c>
       <c r="D141" t="n">
-        <v>387.16</v>
+        <v>193.58</v>
       </c>
       <c r="E141" t="n">
-        <v>405.06</v>
+        <v>202.53</v>
       </c>
       <c r="F141" t="n">
-        <v>420.92</v>
+        <v>210.46</v>
       </c>
       <c r="G141" t="n">
-        <v>429</v>
+        <v>214.5</v>
       </c>
       <c r="H141" t="n">
-        <v>431.94</v>
+        <v>215.97</v>
       </c>
       <c r="I141" t="n">
-        <v>439.86</v>
+        <v>219.93</v>
       </c>
       <c r="J141" t="n">
-        <v>386.82</v>
+        <v>193.41</v>
       </c>
       <c r="K141" t="n">
-        <v>441.92</v>
+        <v>220.96</v>
       </c>
       <c r="L141" t="n">
-        <v>436.24</v>
+        <v>218.12</v>
       </c>
       <c r="M141" t="n">
-        <v>404.04</v>
+        <v>202.02</v>
       </c>
       <c r="N141" t="n">
-        <v>436.06</v>
+        <v>218.03</v>
       </c>
       <c r="O141" t="n">
-        <v>408.86</v>
+        <v>204.43</v>
       </c>
       <c r="P141" t="n">
-        <v>415.4</v>
+        <v>207.7</v>
       </c>
       <c r="Q141" t="n">
-        <v>435.56</v>
+        <v>217.78</v>
       </c>
       <c r="R141" t="n">
-        <v>356.16</v>
+        <v>178.08</v>
       </c>
       <c r="S141" t="n">
-        <v>333.94</v>
+        <v>166.97</v>
       </c>
       <c r="T141" t="n">
-        <v>365.12</v>
+        <v>182.56</v>
       </c>
       <c r="U141" t="n">
-        <v>345.82</v>
+        <v>172.91</v>
       </c>
       <c r="V141" t="n">
         <v>0</v>
@@ -23430,49 +23430,49 @@
         <v>0</v>
       </c>
       <c r="X141" t="n">
-        <v>342.04</v>
+        <v>171.02</v>
       </c>
       <c r="Y141" t="n">
         <v>0</v>
       </c>
       <c r="Z141" t="n">
-        <v>413.5</v>
+        <v>206.75</v>
       </c>
       <c r="AA141" t="n">
-        <v>383.2</v>
+        <v>191.6</v>
       </c>
       <c r="AB141" t="n">
-        <v>413.68</v>
+        <v>206.84</v>
       </c>
       <c r="AC141" t="n">
-        <v>415.58</v>
+        <v>207.79</v>
       </c>
       <c r="AD141" t="n">
-        <v>425.04</v>
+        <v>212.52</v>
       </c>
       <c r="AE141" t="n">
-        <v>427.46</v>
+        <v>213.73</v>
       </c>
       <c r="AF141" t="n">
-        <v>434.18</v>
+        <v>217.09</v>
       </c>
       <c r="AG141" t="n">
-        <v>440.38</v>
+        <v>220.19</v>
       </c>
       <c r="AH141" t="n">
-        <v>412.3</v>
+        <v>206.15</v>
       </c>
       <c r="AI141" t="n">
-        <v>441.58</v>
+        <v>220.79</v>
       </c>
       <c r="AJ141" t="n">
-        <v>419.02</v>
+        <v>209.51</v>
       </c>
       <c r="AK141" t="n">
-        <v>401.96</v>
+        <v>200.98</v>
       </c>
       <c r="AL141" t="n">
-        <v>378.02</v>
+        <v>189.01</v>
       </c>
       <c r="AM141" t="n">
         <v>0</v>
@@ -23487,10 +23487,10 @@
         <v>0</v>
       </c>
       <c r="AQ141" t="n">
-        <v>423.66</v>
+        <v>211.83</v>
       </c>
       <c r="AR141" t="n">
-        <v>412.3</v>
+        <v>206.15</v>
       </c>
       <c r="AS141" t="n">
         <v>0</v>
@@ -23499,25 +23499,25 @@
         <v>0</v>
       </c>
       <c r="AU141" t="n">
-        <v>374.76</v>
+        <v>187.38</v>
       </c>
       <c r="AV141" t="n">
-        <v>385.78</v>
+        <v>192.89</v>
       </c>
       <c r="AW141" t="n">
         <v>0</v>
       </c>
       <c r="AX141" t="n">
-        <v>318.62</v>
+        <v>159.31</v>
       </c>
       <c r="AY141" t="n">
-        <v>333.26</v>
+        <v>166.63</v>
       </c>
       <c r="AZ141" t="n">
-        <v>357.18</v>
+        <v>178.59</v>
       </c>
       <c r="BA141" t="n">
-        <v>337.38</v>
+        <v>168.69</v>
       </c>
     </row>
     <row r="142">
@@ -23527,64 +23527,64 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>334.66</v>
+        <v>167.33</v>
       </c>
       <c r="C142" t="n">
-        <v>332.5</v>
+        <v>166.25</v>
       </c>
       <c r="D142" t="n">
-        <v>331.66</v>
+        <v>165.83</v>
       </c>
       <c r="E142" t="n">
-        <v>322.84</v>
+        <v>161.42</v>
       </c>
       <c r="F142" t="n">
-        <v>307.34</v>
+        <v>153.67</v>
       </c>
       <c r="G142" t="n">
-        <v>315.5</v>
+        <v>157.75</v>
       </c>
       <c r="H142" t="n">
-        <v>328.5</v>
+        <v>164.25</v>
       </c>
       <c r="I142" t="n">
-        <v>324.5</v>
+        <v>162.25</v>
       </c>
       <c r="J142" t="n">
-        <v>311.34</v>
+        <v>155.67</v>
       </c>
       <c r="K142" t="n">
-        <v>281.66</v>
+        <v>140.83</v>
       </c>
       <c r="L142" t="n">
-        <v>306.66</v>
+        <v>153.33</v>
       </c>
       <c r="M142" t="n">
-        <v>262.84</v>
+        <v>131.42</v>
       </c>
       <c r="N142" t="n">
-        <v>322.16</v>
+        <v>161.08</v>
       </c>
       <c r="O142" t="n">
-        <v>303</v>
+        <v>151.5</v>
       </c>
       <c r="P142" t="n">
-        <v>288.84</v>
+        <v>144.42</v>
       </c>
       <c r="Q142" t="n">
-        <v>279.34</v>
+        <v>139.67</v>
       </c>
       <c r="R142" t="n">
-        <v>281.5</v>
+        <v>140.75</v>
       </c>
       <c r="S142" t="n">
-        <v>267.84</v>
+        <v>133.92</v>
       </c>
       <c r="T142" t="n">
-        <v>297.66</v>
+        <v>148.83</v>
       </c>
       <c r="U142" t="n">
-        <v>242.34</v>
+        <v>121.17</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -23593,49 +23593,49 @@
         <v>0</v>
       </c>
       <c r="X142" t="n">
-        <v>279.34</v>
+        <v>139.67</v>
       </c>
       <c r="Y142" t="n">
         <v>0</v>
       </c>
       <c r="Z142" t="n">
-        <v>282.66</v>
+        <v>141.33</v>
       </c>
       <c r="AA142" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="AB142" t="n">
-        <v>253.34</v>
+        <v>126.67</v>
       </c>
       <c r="AC142" t="n">
-        <v>279.66</v>
+        <v>139.83</v>
       </c>
       <c r="AD142" t="n">
-        <v>273.66</v>
+        <v>136.83</v>
       </c>
       <c r="AE142" t="n">
-        <v>263.5</v>
+        <v>131.75</v>
       </c>
       <c r="AF142" t="n">
-        <v>256.66</v>
+        <v>128.33</v>
       </c>
       <c r="AG142" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="AH142" t="n">
-        <v>257</v>
+        <v>128.5</v>
       </c>
       <c r="AI142" t="n">
-        <v>279.5</v>
+        <v>139.75</v>
       </c>
       <c r="AJ142" t="n">
-        <v>264.34</v>
+        <v>132.17</v>
       </c>
       <c r="AK142" t="n">
-        <v>261.5</v>
+        <v>130.75</v>
       </c>
       <c r="AL142" t="n">
-        <v>259.5</v>
+        <v>129.75</v>
       </c>
       <c r="AM142" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         <v>0</v>
       </c>
       <c r="AQ142" t="n">
-        <v>274.16</v>
+        <v>137.08</v>
       </c>
       <c r="AR142" t="n">
-        <v>247.66</v>
+        <v>123.83</v>
       </c>
       <c r="AS142" t="n">
         <v>0</v>
@@ -23662,25 +23662,25 @@
         <v>0</v>
       </c>
       <c r="AU142" t="n">
-        <v>240.34</v>
+        <v>120.17</v>
       </c>
       <c r="AV142" t="n">
-        <v>235.5</v>
+        <v>117.75</v>
       </c>
       <c r="AW142" t="n">
         <v>0</v>
       </c>
       <c r="AX142" t="n">
-        <v>212.34</v>
+        <v>106.17</v>
       </c>
       <c r="AY142" t="n">
-        <v>202.66</v>
+        <v>101.33</v>
       </c>
       <c r="AZ142" t="n">
-        <v>224.16</v>
+        <v>112.08</v>
       </c>
       <c r="BA142" t="n">
-        <v>218.66</v>
+        <v>109.33</v>
       </c>
     </row>
     <row r="143">
@@ -23690,64 +23690,64 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>289.16</v>
+        <v>144.58</v>
       </c>
       <c r="C143" t="n">
-        <v>274.7</v>
+        <v>137.35</v>
       </c>
       <c r="D143" t="n">
-        <v>275.56</v>
+        <v>137.78</v>
       </c>
       <c r="E143" t="n">
-        <v>269.02</v>
+        <v>134.51</v>
       </c>
       <c r="F143" t="n">
-        <v>251.96</v>
+        <v>125.98</v>
       </c>
       <c r="G143" t="n">
-        <v>267.28</v>
+        <v>133.64</v>
       </c>
       <c r="H143" t="n">
-        <v>267.28</v>
+        <v>133.64</v>
       </c>
       <c r="I143" t="n">
-        <v>266.26</v>
+        <v>133.13</v>
       </c>
       <c r="J143" t="n">
-        <v>235.94</v>
+        <v>117.97</v>
       </c>
       <c r="K143" t="n">
-        <v>246.62</v>
+        <v>123.31</v>
       </c>
       <c r="L143" t="n">
-        <v>260.06</v>
+        <v>130.03</v>
       </c>
       <c r="M143" t="n">
-        <v>218.04</v>
+        <v>109.02</v>
       </c>
       <c r="N143" t="n">
-        <v>254.02</v>
+        <v>127.01</v>
       </c>
       <c r="O143" t="n">
-        <v>242.84</v>
+        <v>121.42</v>
       </c>
       <c r="P143" t="n">
-        <v>243.52</v>
+        <v>121.76</v>
       </c>
       <c r="Q143" t="n">
-        <v>240.08</v>
+        <v>120.04</v>
       </c>
       <c r="R143" t="n">
-        <v>220.62</v>
+        <v>110.31</v>
       </c>
       <c r="S143" t="n">
-        <v>212.18</v>
+        <v>106.09</v>
       </c>
       <c r="T143" t="n">
-        <v>209.42</v>
+        <v>104.71</v>
       </c>
       <c r="U143" t="n">
-        <v>200.12</v>
+        <v>100.06</v>
       </c>
       <c r="V143" t="n">
         <v>0</v>
@@ -23756,49 +23756,49 @@
         <v>0</v>
       </c>
       <c r="X143" t="n">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="Y143" t="n">
         <v>0</v>
       </c>
       <c r="Z143" t="n">
-        <v>236.46</v>
+        <v>118.23</v>
       </c>
       <c r="AA143" t="n">
-        <v>203.06</v>
+        <v>101.53</v>
       </c>
       <c r="AB143" t="n">
-        <v>221.48</v>
+        <v>110.74</v>
       </c>
       <c r="AC143" t="n">
-        <v>243.52</v>
+        <v>121.76</v>
       </c>
       <c r="AD143" t="n">
-        <v>222.86</v>
+        <v>111.43</v>
       </c>
       <c r="AE143" t="n">
-        <v>226.64</v>
+        <v>113.32</v>
       </c>
       <c r="AF143" t="n">
-        <v>209.42</v>
+        <v>104.71</v>
       </c>
       <c r="AG143" t="n">
-        <v>214.08</v>
+        <v>107.04</v>
       </c>
       <c r="AH143" t="n">
-        <v>218.2</v>
+        <v>109.1</v>
       </c>
       <c r="AI143" t="n">
-        <v>233.36</v>
+        <v>116.68</v>
       </c>
       <c r="AJ143" t="n">
-        <v>216.32</v>
+        <v>108.16</v>
       </c>
       <c r="AK143" t="n">
-        <v>208.04</v>
+        <v>104.02</v>
       </c>
       <c r="AL143" t="n">
-        <v>223.54</v>
+        <v>111.77</v>
       </c>
       <c r="AM143" t="n">
         <v>0</v>
@@ -23813,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="AQ143" t="n">
-        <v>222.86</v>
+        <v>111.43</v>
       </c>
       <c r="AR143" t="n">
-        <v>210.46</v>
+        <v>105.23</v>
       </c>
       <c r="AS143" t="n">
         <v>0</v>
@@ -23825,25 +23825,25 @@
         <v>0</v>
       </c>
       <c r="AU143" t="n">
-        <v>195.12</v>
+        <v>97.56</v>
       </c>
       <c r="AV143" t="n">
-        <v>194.1</v>
+        <v>97.05</v>
       </c>
       <c r="AW143" t="n">
         <v>0</v>
       </c>
       <c r="AX143" t="n">
-        <v>165.16</v>
+        <v>82.58</v>
       </c>
       <c r="AY143" t="n">
-        <v>162.76</v>
+        <v>81.38</v>
       </c>
       <c r="AZ143" t="n">
-        <v>166.36</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="BA143" t="n">
-        <v>172.06</v>
+        <v>86.03</v>
       </c>
     </row>
     <row r="144">
@@ -23853,64 +23853,64 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>191.5</v>
+        <v>95.75</v>
       </c>
       <c r="C144" t="n">
-        <v>179.34</v>
+        <v>89.67</v>
       </c>
       <c r="D144" t="n">
-        <v>204.5</v>
+        <v>102.25</v>
       </c>
       <c r="E144" t="n">
-        <v>192.5</v>
+        <v>96.25</v>
       </c>
       <c r="F144" t="n">
-        <v>171.66</v>
+        <v>85.83</v>
       </c>
       <c r="G144" t="n">
-        <v>167.16</v>
+        <v>83.58</v>
       </c>
       <c r="H144" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="I144" t="n">
-        <v>180.66</v>
+        <v>90.33</v>
       </c>
       <c r="J144" t="n">
-        <v>172.66</v>
+        <v>86.33</v>
       </c>
       <c r="K144" t="n">
-        <v>171.34</v>
+        <v>85.67</v>
       </c>
       <c r="L144" t="n">
-        <v>172.16</v>
+        <v>86.08</v>
       </c>
       <c r="M144" t="n">
-        <v>149.84</v>
+        <v>74.92</v>
       </c>
       <c r="N144" t="n">
-        <v>170.5</v>
+        <v>85.25</v>
       </c>
       <c r="O144" t="n">
-        <v>164.5</v>
+        <v>82.25</v>
       </c>
       <c r="P144" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Q144" t="n">
-        <v>154.66</v>
+        <v>77.33</v>
       </c>
       <c r="R144" t="n">
-        <v>150.84</v>
+        <v>75.42</v>
       </c>
       <c r="S144" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="T144" t="n">
-        <v>144.66</v>
+        <v>72.33</v>
       </c>
       <c r="U144" t="n">
-        <v>99.84</v>
+        <v>49.92</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
@@ -23919,49 +23919,49 @@
         <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>183.34</v>
+        <v>91.67</v>
       </c>
       <c r="Y144" t="n">
         <v>0</v>
       </c>
       <c r="Z144" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AA144" t="n">
-        <v>113.34</v>
+        <v>56.67</v>
       </c>
       <c r="AB144" t="n">
-        <v>113.34</v>
+        <v>56.67</v>
       </c>
       <c r="AC144" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AD144" t="n">
-        <v>153.66</v>
+        <v>76.83</v>
       </c>
       <c r="AE144" t="n">
-        <v>150.5</v>
+        <v>75.25</v>
       </c>
       <c r="AF144" t="n">
-        <v>148.66</v>
+        <v>74.33</v>
       </c>
       <c r="AG144" t="n">
-        <v>150.5</v>
+        <v>75.25</v>
       </c>
       <c r="AH144" t="n">
-        <v>128.34</v>
+        <v>64.17</v>
       </c>
       <c r="AI144" t="n">
-        <v>141</v>
+        <v>70.5</v>
       </c>
       <c r="AJ144" t="n">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AK144" t="n">
-        <v>120.16</v>
+        <v>60.08</v>
       </c>
       <c r="AL144" t="n">
-        <v>132.34</v>
+        <v>66.17</v>
       </c>
       <c r="AM144" t="n">
         <v>0</v>
@@ -23976,10 +23976,10 @@
         <v>0</v>
       </c>
       <c r="AQ144" t="n">
-        <v>131.84</v>
+        <v>65.92</v>
       </c>
       <c r="AR144" t="n">
-        <v>125.34</v>
+        <v>62.67</v>
       </c>
       <c r="AS144" t="n">
         <v>0</v>
@@ -23988,25 +23988,25 @@
         <v>0</v>
       </c>
       <c r="AU144" t="n">
-        <v>78.84</v>
+        <v>39.42</v>
       </c>
       <c r="AV144" t="n">
-        <v>94.5</v>
+        <v>47.25</v>
       </c>
       <c r="AW144" t="n">
         <v>0</v>
       </c>
       <c r="AX144" t="n">
-        <v>113.66</v>
+        <v>56.83</v>
       </c>
       <c r="AY144" t="n">
-        <v>106.66</v>
+        <v>53.33</v>
       </c>
       <c r="AZ144" t="n">
-        <v>95</v>
+        <v>47.5</v>
       </c>
       <c r="BA144" t="n">
-        <v>118.34</v>
+        <v>59.17</v>
       </c>
     </row>
     <row r="145">
@@ -24016,64 +24016,64 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>151.72</v>
+        <v>75.86</v>
       </c>
       <c r="C145" t="n">
-        <v>140.02</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>156.56</v>
+        <v>78.28</v>
       </c>
       <c r="E145" t="n">
-        <v>148.98</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>131.4</v>
+        <v>65.7</v>
       </c>
       <c r="G145" t="n">
-        <v>137.44</v>
+        <v>68.72</v>
       </c>
       <c r="H145" t="n">
-        <v>162.76</v>
+        <v>81.38</v>
       </c>
       <c r="I145" t="n">
-        <v>136.4</v>
+        <v>68.2</v>
       </c>
       <c r="J145" t="n">
-        <v>135.72</v>
+        <v>67.86</v>
       </c>
       <c r="K145" t="n">
-        <v>111.94</v>
+        <v>55.97</v>
       </c>
       <c r="L145" t="n">
-        <v>126.42</v>
+        <v>63.21</v>
       </c>
       <c r="M145" t="n">
-        <v>101.62</v>
+        <v>50.81</v>
       </c>
       <c r="N145" t="n">
-        <v>135.02</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="O145" t="n">
-        <v>138.3</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="P145" t="n">
-        <v>121.94</v>
+        <v>60.97</v>
       </c>
       <c r="Q145" t="n">
-        <v>108.68</v>
+        <v>54.34</v>
       </c>
       <c r="R145" t="n">
-        <v>136.92</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="S145" t="n">
-        <v>122.28</v>
+        <v>61.14</v>
       </c>
       <c r="T145" t="n">
-        <v>137.78</v>
+        <v>68.89</v>
       </c>
       <c r="U145" t="n">
-        <v>114.36</v>
+        <v>57.18</v>
       </c>
       <c r="V145" t="n">
         <v>0</v>
@@ -24082,49 +24082,49 @@
         <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>173.78</v>
+        <v>86.89</v>
       </c>
       <c r="Y145" t="n">
         <v>0</v>
       </c>
       <c r="Z145" t="n">
-        <v>110.92</v>
+        <v>55.46</v>
       </c>
       <c r="AA145" t="n">
-        <v>79.40000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="AB145" t="n">
-        <v>90.94</v>
+        <v>45.47</v>
       </c>
       <c r="AC145" t="n">
-        <v>120.9</v>
+        <v>60.45</v>
       </c>
       <c r="AD145" t="n">
-        <v>103.34</v>
+        <v>51.67</v>
       </c>
       <c r="AE145" t="n">
-        <v>93</v>
+        <v>46.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>90.76000000000001</v>
+        <v>45.38</v>
       </c>
       <c r="AG145" t="n">
-        <v>95.06</v>
+        <v>47.53</v>
       </c>
       <c r="AH145" t="n">
-        <v>91.62</v>
+        <v>45.81</v>
       </c>
       <c r="AI145" t="n">
-        <v>102.98</v>
+        <v>51.49</v>
       </c>
       <c r="AJ145" t="n">
-        <v>88.86</v>
+        <v>44.43</v>
       </c>
       <c r="AK145" t="n">
-        <v>62.68</v>
+        <v>31.34</v>
       </c>
       <c r="AL145" t="n">
-        <v>121.58</v>
+        <v>60.79</v>
       </c>
       <c r="AM145" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="AQ145" t="n">
-        <v>69.06</v>
+        <v>34.53</v>
       </c>
       <c r="AR145" t="n">
-        <v>66.81999999999999</v>
+        <v>33.41</v>
       </c>
       <c r="AS145" t="n">
         <v>0</v>
@@ -24151,25 +24151,25 @@
         <v>0</v>
       </c>
       <c r="AU145" t="n">
-        <v>64.42</v>
+        <v>32.21</v>
       </c>
       <c r="AV145" t="n">
-        <v>79.22</v>
+        <v>39.61</v>
       </c>
       <c r="AW145" t="n">
         <v>0</v>
       </c>
       <c r="AX145" t="n">
-        <v>73.02</v>
+        <v>36.51</v>
       </c>
       <c r="AY145" t="n">
-        <v>66.48</v>
+        <v>33.24</v>
       </c>
       <c r="AZ145" t="n">
-        <v>62.86</v>
+        <v>31.43</v>
       </c>
       <c r="BA145" t="n">
-        <v>73.02</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="146">
@@ -24179,64 +24179,64 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>203.22</v>
+        <v>101.61</v>
       </c>
       <c r="C146" t="n">
-        <v>174.98</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>183.42</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>164.48</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>172.56</v>
+        <v>86.28</v>
       </c>
       <c r="G146" t="n">
-        <v>166.36</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>183.94</v>
+        <v>91.97</v>
       </c>
       <c r="I146" t="n">
-        <v>187.38</v>
+        <v>93.69</v>
       </c>
       <c r="J146" t="n">
-        <v>160.16</v>
+        <v>80.08</v>
       </c>
       <c r="K146" t="n">
-        <v>166.36</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="L146" t="n">
-        <v>179.28</v>
+        <v>89.64</v>
       </c>
       <c r="M146" t="n">
-        <v>144.84</v>
+        <v>72.42</v>
       </c>
       <c r="N146" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="O146" t="n">
-        <v>179.62</v>
+        <v>89.81</v>
       </c>
       <c r="P146" t="n">
-        <v>178.94</v>
+        <v>89.47</v>
       </c>
       <c r="Q146" t="n">
-        <v>167.4</v>
+        <v>83.7</v>
       </c>
       <c r="R146" t="n">
-        <v>160.52</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="S146" t="n">
-        <v>152.58</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="T146" t="n">
-        <v>161.54</v>
+        <v>80.77</v>
       </c>
       <c r="U146" t="n">
-        <v>141.56</v>
+        <v>70.78</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -24245,49 +24245,49 @@
         <v>0</v>
       </c>
       <c r="X146" t="n">
-        <v>182.22</v>
+        <v>91.11</v>
       </c>
       <c r="Y146" t="n">
         <v>0</v>
       </c>
       <c r="Z146" t="n">
-        <v>141.06</v>
+        <v>70.53</v>
       </c>
       <c r="AA146" t="n">
-        <v>137.96</v>
+        <v>68.98</v>
       </c>
       <c r="AB146" t="n">
-        <v>142.08</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="AC146" t="n">
-        <v>169.46</v>
+        <v>84.73</v>
       </c>
       <c r="AD146" t="n">
-        <v>158.96</v>
+        <v>79.48</v>
       </c>
       <c r="AE146" t="n">
-        <v>156.72</v>
+        <v>78.36</v>
       </c>
       <c r="AF146" t="n">
-        <v>149.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="AG146" t="n">
-        <v>151.38</v>
+        <v>75.69</v>
       </c>
       <c r="AH146" t="n">
-        <v>153.62</v>
+        <v>76.81</v>
       </c>
       <c r="AI146" t="n">
-        <v>163.1</v>
+        <v>81.55</v>
       </c>
       <c r="AJ146" t="n">
-        <v>159.14</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="AK146" t="n">
-        <v>135.02</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="AL146" t="n">
-        <v>155.18</v>
+        <v>77.59</v>
       </c>
       <c r="AM146" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="AQ146" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AR146" t="n">
-        <v>142.94</v>
+        <v>71.47</v>
       </c>
       <c r="AS146" t="n">
         <v>0</v>
@@ -24314,25 +24314,25 @@
         <v>0</v>
       </c>
       <c r="AU146" t="n">
-        <v>125.38</v>
+        <v>62.69</v>
       </c>
       <c r="AV146" t="n">
-        <v>117.46</v>
+        <v>58.73</v>
       </c>
       <c r="AW146" t="n">
         <v>0</v>
       </c>
       <c r="AX146" t="n">
-        <v>116.42</v>
+        <v>58.21</v>
       </c>
       <c r="AY146" t="n">
-        <v>102.98</v>
+        <v>51.49</v>
       </c>
       <c r="AZ146" t="n">
-        <v>109.7</v>
+        <v>54.85</v>
       </c>
       <c r="BA146" t="n">
-        <v>121.94</v>
+        <v>60.97</v>
       </c>
     </row>
     <row r="147">
@@ -24342,64 +24342,64 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>222.6</v>
+        <v>111.3</v>
       </c>
       <c r="C147" t="n">
-        <v>203</v>
+        <v>101.5</v>
       </c>
       <c r="D147" t="n">
-        <v>212.18</v>
+        <v>106.09</v>
       </c>
       <c r="E147" t="n">
-        <v>191.02</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>206.58</v>
+        <v>103.29</v>
       </c>
       <c r="G147" t="n">
-        <v>210.32</v>
+        <v>105.16</v>
       </c>
       <c r="H147" t="n">
-        <v>210.62</v>
+        <v>105.31</v>
       </c>
       <c r="I147" t="n">
-        <v>197.72</v>
+        <v>98.86</v>
       </c>
       <c r="J147" t="n">
-        <v>194.44</v>
+        <v>97.22</v>
       </c>
       <c r="K147" t="n">
-        <v>182.16</v>
+        <v>91.08</v>
       </c>
       <c r="L147" t="n">
-        <v>171.42</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="M147" t="n">
-        <v>175</v>
+        <v>87.5</v>
       </c>
       <c r="N147" t="n">
-        <v>200.98</v>
+        <v>100.49</v>
       </c>
       <c r="O147" t="n">
-        <v>196.16</v>
+        <v>98.08</v>
       </c>
       <c r="P147" t="n">
-        <v>192.12</v>
+        <v>96.06</v>
       </c>
       <c r="Q147" t="n">
-        <v>184.96</v>
+        <v>92.48</v>
       </c>
       <c r="R147" t="n">
-        <v>180.14</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="S147" t="n">
-        <v>176.72</v>
+        <v>88.36</v>
       </c>
       <c r="T147" t="n">
-        <v>187.14</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="U147" t="n">
-        <v>172.98</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="V147" t="n">
         <v>0</v>
@@ -24408,49 +24408,49 @@
         <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>179.82</v>
+        <v>89.91</v>
       </c>
       <c r="Y147" t="n">
         <v>0</v>
       </c>
       <c r="Z147" t="n">
-        <v>163.18</v>
+        <v>81.59</v>
       </c>
       <c r="AA147" t="n">
-        <v>159.28</v>
+        <v>79.64</v>
       </c>
       <c r="AB147" t="n">
-        <v>156.02</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="AC147" t="n">
-        <v>194.44</v>
+        <v>97.22</v>
       </c>
       <c r="AD147" t="n">
-        <v>184.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AE147" t="n">
-        <v>187.28</v>
+        <v>93.64</v>
       </c>
       <c r="AF147" t="n">
-        <v>181.68</v>
+        <v>90.84</v>
       </c>
       <c r="AG147" t="n">
-        <v>169.4</v>
+        <v>84.7</v>
       </c>
       <c r="AH147" t="n">
-        <v>173.28</v>
+        <v>86.64</v>
       </c>
       <c r="AI147" t="n">
-        <v>181.54</v>
+        <v>90.77</v>
       </c>
       <c r="AJ147" t="n">
-        <v>180.76</v>
+        <v>90.38</v>
       </c>
       <c r="AK147" t="n">
-        <v>170.64</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="AL147" t="n">
-        <v>170.34</v>
+        <v>85.17</v>
       </c>
       <c r="AM147" t="n">
         <v>0</v>
@@ -24465,10 +24465,10 @@
         <v>0</v>
       </c>
       <c r="AQ147" t="n">
-        <v>182.46</v>
+        <v>91.23</v>
       </c>
       <c r="AR147" t="n">
-        <v>172.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="AS147" t="n">
         <v>0</v>
@@ -24477,25 +24477,25 @@
         <v>0</v>
       </c>
       <c r="AU147" t="n">
-        <v>159.14</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="AV147" t="n">
-        <v>142.34</v>
+        <v>71.17</v>
       </c>
       <c r="AW147" t="n">
         <v>0</v>
       </c>
       <c r="AX147" t="n">
-        <v>126.94</v>
+        <v>63.47</v>
       </c>
       <c r="AY147" t="n">
-        <v>127.56</v>
+        <v>63.78</v>
       </c>
       <c r="AZ147" t="n">
-        <v>137.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="BA147" t="n">
-        <v>135.96</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="148">
@@ -24505,64 +24505,64 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>200.64</v>
+        <v>100.32</v>
       </c>
       <c r="C148" t="n">
-        <v>166.88</v>
+        <v>83.44</v>
       </c>
       <c r="D148" t="n">
-        <v>212.52</v>
+        <v>106.26</v>
       </c>
       <c r="E148" t="n">
-        <v>223.88</v>
+        <v>111.94</v>
       </c>
       <c r="F148" t="n">
-        <v>209.08</v>
+        <v>104.54</v>
       </c>
       <c r="G148" t="n">
-        <v>196.16</v>
+        <v>98.08</v>
       </c>
       <c r="H148" t="n">
-        <v>208.04</v>
+        <v>104.02</v>
       </c>
       <c r="I148" t="n">
-        <v>213.04</v>
+        <v>106.52</v>
       </c>
       <c r="J148" t="n">
-        <v>167.74</v>
+        <v>83.87</v>
       </c>
       <c r="K148" t="n">
-        <v>188.24</v>
+        <v>94.12</v>
       </c>
       <c r="L148" t="n">
-        <v>173.94</v>
+        <v>86.97</v>
       </c>
       <c r="M148" t="n">
-        <v>179.46</v>
+        <v>89.73</v>
       </c>
       <c r="N148" t="n">
-        <v>175.16</v>
+        <v>87.58</v>
       </c>
       <c r="O148" t="n">
-        <v>163.78</v>
+        <v>81.89</v>
       </c>
       <c r="P148" t="n">
-        <v>180.14</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="Q148" t="n">
-        <v>171.18</v>
+        <v>85.59</v>
       </c>
       <c r="R148" t="n">
-        <v>159.48</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="S148" t="n">
-        <v>129</v>
+        <v>64.5</v>
       </c>
       <c r="T148" t="n">
-        <v>150.52</v>
+        <v>75.26000000000001</v>
       </c>
       <c r="U148" t="n">
-        <v>149.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -24571,49 +24571,49 @@
         <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>247.82</v>
+        <v>123.91</v>
       </c>
       <c r="Y148" t="n">
         <v>0</v>
       </c>
       <c r="Z148" t="n">
-        <v>167.4</v>
+        <v>83.7</v>
       </c>
       <c r="AA148" t="n">
-        <v>131.24</v>
+        <v>65.62</v>
       </c>
       <c r="AB148" t="n">
-        <v>161.88</v>
+        <v>80.94</v>
       </c>
       <c r="AC148" t="n">
-        <v>188.76</v>
+        <v>94.38</v>
       </c>
       <c r="AD148" t="n">
-        <v>191.34</v>
+        <v>95.67</v>
       </c>
       <c r="AE148" t="n">
-        <v>197.36</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="AF148" t="n">
-        <v>185.48</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="AG148" t="n">
-        <v>176.7</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="AH148" t="n">
-        <v>178.6</v>
+        <v>89.3</v>
       </c>
       <c r="AI148" t="n">
-        <v>203.4</v>
+        <v>101.7</v>
       </c>
       <c r="AJ148" t="n">
-        <v>180.66</v>
+        <v>90.33</v>
       </c>
       <c r="AK148" t="n">
-        <v>170.84</v>
+        <v>85.42</v>
       </c>
       <c r="AL148" t="n">
-        <v>152.94</v>
+        <v>76.47</v>
       </c>
       <c r="AM148" t="n">
         <v>0</v>
@@ -24628,10 +24628,10 @@
         <v>0</v>
       </c>
       <c r="AQ148" t="n">
-        <v>176.02</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="AR148" t="n">
-        <v>168.08</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="AS148" t="n">
         <v>0</v>
@@ -24640,25 +24640,25 @@
         <v>0</v>
       </c>
       <c r="AU148" t="n">
-        <v>178.42</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="AV148" t="n">
-        <v>152.58</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="AW148" t="n">
         <v>0</v>
       </c>
       <c r="AX148" t="n">
-        <v>183.94</v>
+        <v>91.97</v>
       </c>
       <c r="AY148" t="n">
-        <v>182.72</v>
+        <v>91.36</v>
       </c>
       <c r="AZ148" t="n">
-        <v>172.4</v>
+        <v>86.2</v>
       </c>
       <c r="BA148" t="n">
-        <v>187.38</v>
+        <v>93.69</v>
       </c>
     </row>
     <row r="149">
@@ -24668,64 +24668,64 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>333.66</v>
+        <v>166.83</v>
       </c>
       <c r="C149" t="n">
-        <v>308.66</v>
+        <v>154.33</v>
       </c>
       <c r="D149" t="n">
-        <v>338.84</v>
+        <v>169.42</v>
       </c>
       <c r="E149" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="F149" t="n">
-        <v>338.84</v>
+        <v>169.42</v>
       </c>
       <c r="G149" t="n">
-        <v>340.5</v>
+        <v>170.25</v>
       </c>
       <c r="H149" t="n">
-        <v>335.5</v>
+        <v>167.75</v>
       </c>
       <c r="I149" t="n">
-        <v>341.66</v>
+        <v>170.83</v>
       </c>
       <c r="J149" t="n">
-        <v>322.16</v>
+        <v>161.08</v>
       </c>
       <c r="K149" t="n">
-        <v>318.66</v>
+        <v>159.33</v>
       </c>
       <c r="L149" t="n">
-        <v>300.5</v>
+        <v>150.25</v>
       </c>
       <c r="M149" t="n">
-        <v>307</v>
+        <v>153.5</v>
       </c>
       <c r="N149" t="n">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="O149" t="n">
-        <v>305.34</v>
+        <v>152.67</v>
       </c>
       <c r="P149" t="n">
-        <v>319</v>
+        <v>159.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>318.34</v>
+        <v>159.17</v>
       </c>
       <c r="R149" t="n">
-        <v>286.34</v>
+        <v>143.17</v>
       </c>
       <c r="S149" t="n">
-        <v>247</v>
+        <v>123.5</v>
       </c>
       <c r="T149" t="n">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="U149" t="n">
-        <v>299.84</v>
+        <v>149.92</v>
       </c>
       <c r="V149" t="n">
         <v>0</v>
@@ -24734,49 +24734,49 @@
         <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>305.34</v>
+        <v>152.67</v>
       </c>
       <c r="Y149" t="n">
         <v>0</v>
       </c>
       <c r="Z149" t="n">
-        <v>311.16</v>
+        <v>155.58</v>
       </c>
       <c r="AA149" t="n">
-        <v>271.66</v>
+        <v>135.83</v>
       </c>
       <c r="AB149" t="n">
-        <v>278.84</v>
+        <v>139.42</v>
       </c>
       <c r="AC149" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="AD149" t="n">
-        <v>317.5</v>
+        <v>158.75</v>
       </c>
       <c r="AE149" t="n">
-        <v>334.5</v>
+        <v>167.25</v>
       </c>
       <c r="AF149" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="AG149" t="n">
-        <v>303.5</v>
+        <v>151.75</v>
       </c>
       <c r="AH149" t="n">
-        <v>303.66</v>
+        <v>151.83</v>
       </c>
       <c r="AI149" t="n">
-        <v>333.34</v>
+        <v>166.67</v>
       </c>
       <c r="AJ149" t="n">
-        <v>322.66</v>
+        <v>161.33</v>
       </c>
       <c r="AK149" t="n">
-        <v>316.34</v>
+        <v>158.17</v>
       </c>
       <c r="AL149" t="n">
-        <v>278.66</v>
+        <v>139.33</v>
       </c>
       <c r="AM149" t="n">
         <v>0</v>
@@ -24791,10 +24791,10 @@
         <v>0</v>
       </c>
       <c r="AQ149" t="n">
-        <v>296.84</v>
+        <v>148.42</v>
       </c>
       <c r="AR149" t="n">
-        <v>309.34</v>
+        <v>154.67</v>
       </c>
       <c r="AS149" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="AU149" t="n">
-        <v>279.16</v>
+        <v>139.58</v>
       </c>
       <c r="AV149" t="n">
-        <v>271</v>
+        <v>135.5</v>
       </c>
       <c r="AW149" t="n">
         <v>0</v>
       </c>
       <c r="AX149" t="n">
-        <v>257.84</v>
+        <v>128.92</v>
       </c>
       <c r="AY149" t="n">
-        <v>263.34</v>
+        <v>131.67</v>
       </c>
       <c r="AZ149" t="n">
-        <v>282.66</v>
+        <v>141.33</v>
       </c>
       <c r="BA149" t="n">
-        <v>279</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="150">
@@ -24831,64 +24831,64 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>448.98</v>
+        <v>224.49</v>
       </c>
       <c r="C150" t="n">
-        <v>452.94</v>
+        <v>226.47</v>
       </c>
       <c r="D150" t="n">
-        <v>472.4</v>
+        <v>236.2</v>
       </c>
       <c r="E150" t="n">
-        <v>468.1</v>
+        <v>234.05</v>
       </c>
       <c r="F150" t="n">
-        <v>463.1</v>
+        <v>231.55</v>
       </c>
       <c r="G150" t="n">
-        <v>462.42</v>
+        <v>231.21</v>
       </c>
       <c r="H150" t="n">
-        <v>447.96</v>
+        <v>223.98</v>
       </c>
       <c r="I150" t="n">
-        <v>441.58</v>
+        <v>220.79</v>
       </c>
       <c r="J150" t="n">
-        <v>465.18</v>
+        <v>232.59</v>
       </c>
       <c r="K150" t="n">
-        <v>421.6</v>
+        <v>210.8</v>
       </c>
       <c r="L150" t="n">
-        <v>404.38</v>
+        <v>202.19</v>
       </c>
       <c r="M150" t="n">
-        <v>428.48</v>
+        <v>214.24</v>
       </c>
       <c r="N150" t="n">
-        <v>479.46</v>
+        <v>239.73</v>
       </c>
       <c r="O150" t="n">
-        <v>461.56</v>
+        <v>230.78</v>
       </c>
       <c r="P150" t="n">
-        <v>448.3</v>
+        <v>224.15</v>
       </c>
       <c r="Q150" t="n">
-        <v>445.88</v>
+        <v>222.94</v>
       </c>
       <c r="R150" t="n">
-        <v>417.82</v>
+        <v>208.91</v>
       </c>
       <c r="S150" t="n">
-        <v>395.26</v>
+        <v>197.63</v>
       </c>
       <c r="T150" t="n">
-        <v>427.12</v>
+        <v>213.56</v>
       </c>
       <c r="U150" t="n">
-        <v>391.12</v>
+        <v>195.56</v>
       </c>
       <c r="V150" t="n">
         <v>0</v>
@@ -24897,49 +24897,49 @@
         <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>328.6</v>
+        <v>164.3</v>
       </c>
       <c r="Y150" t="n">
         <v>0</v>
       </c>
       <c r="Z150" t="n">
-        <v>421.42</v>
+        <v>210.71</v>
       </c>
       <c r="AA150" t="n">
-        <v>390.94</v>
+        <v>195.47</v>
       </c>
       <c r="AB150" t="n">
-        <v>387.84</v>
+        <v>193.92</v>
       </c>
       <c r="AC150" t="n">
-        <v>419.54</v>
+        <v>209.77</v>
       </c>
       <c r="AD150" t="n">
-        <v>402.66</v>
+        <v>201.33</v>
       </c>
       <c r="AE150" t="n">
-        <v>405.24</v>
+        <v>202.62</v>
       </c>
       <c r="AF150" t="n">
-        <v>414.88</v>
+        <v>207.44</v>
       </c>
       <c r="AG150" t="n">
-        <v>452.08</v>
+        <v>226.04</v>
       </c>
       <c r="AH150" t="n">
-        <v>403</v>
+        <v>201.5</v>
       </c>
       <c r="AI150" t="n">
-        <v>437.78</v>
+        <v>218.89</v>
       </c>
       <c r="AJ150" t="n">
-        <v>424.18</v>
+        <v>212.09</v>
       </c>
       <c r="AK150" t="n">
-        <v>414.36</v>
+        <v>207.18</v>
       </c>
       <c r="AL150" t="n">
-        <v>425.74</v>
+        <v>212.87</v>
       </c>
       <c r="AM150" t="n">
         <v>0</v>
@@ -24954,10 +24954,10 @@
         <v>0</v>
       </c>
       <c r="AQ150" t="n">
-        <v>421.6</v>
+        <v>210.8</v>
       </c>
       <c r="AR150" t="n">
-        <v>411.96</v>
+        <v>205.98</v>
       </c>
       <c r="AS150" t="n">
         <v>0</v>
@@ -24966,25 +24966,25 @@
         <v>0</v>
       </c>
       <c r="AU150" t="n">
-        <v>385.78</v>
+        <v>192.89</v>
       </c>
       <c r="AV150" t="n">
-        <v>375.96</v>
+        <v>187.98</v>
       </c>
       <c r="AW150" t="n">
         <v>0</v>
       </c>
       <c r="AX150" t="n">
-        <v>317.76</v>
+        <v>158.88</v>
       </c>
       <c r="AY150" t="n">
-        <v>330.66</v>
+        <v>165.33</v>
       </c>
       <c r="AZ150" t="n">
-        <v>357.18</v>
+        <v>178.59</v>
       </c>
       <c r="BA150" t="n">
-        <v>326.88</v>
+        <v>163.44</v>
       </c>
     </row>
     <row r="151">
@@ -24994,64 +24994,64 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>465.34</v>
+        <v>232.67</v>
       </c>
       <c r="C151" t="n">
-        <v>474.84</v>
+        <v>237.42</v>
       </c>
       <c r="D151" t="n">
-        <v>482.16</v>
+        <v>241.08</v>
       </c>
       <c r="E151" t="n">
-        <v>484.34</v>
+        <v>242.17</v>
       </c>
       <c r="F151" t="n">
-        <v>470.16</v>
+        <v>235.08</v>
       </c>
       <c r="G151" t="n">
-        <v>470.66</v>
+        <v>235.33</v>
       </c>
       <c r="H151" t="n">
-        <v>455.16</v>
+        <v>227.58</v>
       </c>
       <c r="I151" t="n">
-        <v>439.16</v>
+        <v>219.58</v>
       </c>
       <c r="J151" t="n">
-        <v>486.84</v>
+        <v>243.42</v>
       </c>
       <c r="K151" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="L151" t="n">
-        <v>408.5</v>
+        <v>204.25</v>
       </c>
       <c r="M151" t="n">
-        <v>410.5</v>
+        <v>205.25</v>
       </c>
       <c r="N151" t="n">
-        <v>480.5</v>
+        <v>240.25</v>
       </c>
       <c r="O151" t="n">
-        <v>464.5</v>
+        <v>232.25</v>
       </c>
       <c r="P151" t="n">
-        <v>464.66</v>
+        <v>232.33</v>
       </c>
       <c r="Q151" t="n">
-        <v>472.16</v>
+        <v>236.08</v>
       </c>
       <c r="R151" t="n">
-        <v>437.66</v>
+        <v>218.83</v>
       </c>
       <c r="S151" t="n">
-        <v>422.5</v>
+        <v>211.25</v>
       </c>
       <c r="T151" t="n">
-        <v>437.84</v>
+        <v>218.92</v>
       </c>
       <c r="U151" t="n">
-        <v>433.16</v>
+        <v>216.58</v>
       </c>
       <c r="V151" t="n">
         <v>0</v>
@@ -25060,49 +25060,49 @@
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>301.34</v>
+        <v>150.67</v>
       </c>
       <c r="Y151" t="n">
         <v>0</v>
       </c>
       <c r="Z151" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="AA151" t="n">
-        <v>417.66</v>
+        <v>208.83</v>
       </c>
       <c r="AB151" t="n">
-        <v>395.34</v>
+        <v>197.67</v>
       </c>
       <c r="AC151" t="n">
-        <v>431.5</v>
+        <v>215.75</v>
       </c>
       <c r="AD151" t="n">
-        <v>397.66</v>
+        <v>198.83</v>
       </c>
       <c r="AE151" t="n">
-        <v>409.5</v>
+        <v>204.75</v>
       </c>
       <c r="AF151" t="n">
-        <v>415</v>
+        <v>207.5</v>
       </c>
       <c r="AG151" t="n">
-        <v>427.16</v>
+        <v>213.58</v>
       </c>
       <c r="AH151" t="n">
-        <v>404.66</v>
+        <v>202.33</v>
       </c>
       <c r="AI151" t="n">
-        <v>443.16</v>
+        <v>221.58</v>
       </c>
       <c r="AJ151" t="n">
-        <v>434.16</v>
+        <v>217.08</v>
       </c>
       <c r="AK151" t="n">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="AL151" t="n">
-        <v>447.16</v>
+        <v>223.58</v>
       </c>
       <c r="AM151" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="AQ151" t="n">
-        <v>436.34</v>
+        <v>218.17</v>
       </c>
       <c r="AR151" t="n">
-        <v>416.84</v>
+        <v>208.42</v>
       </c>
       <c r="AS151" t="n">
         <v>0</v>
@@ -25129,25 +25129,25 @@
         <v>0</v>
       </c>
       <c r="AU151" t="n">
-        <v>399.66</v>
+        <v>199.83</v>
       </c>
       <c r="AV151" t="n">
-        <v>381.66</v>
+        <v>190.83</v>
       </c>
       <c r="AW151" t="n">
         <v>0</v>
       </c>
       <c r="AX151" t="n">
-        <v>263.5</v>
+        <v>131.75</v>
       </c>
       <c r="AY151" t="n">
-        <v>258.84</v>
+        <v>129.42</v>
       </c>
       <c r="AZ151" t="n">
-        <v>329.34</v>
+        <v>164.67</v>
       </c>
       <c r="BA151" t="n">
-        <v>293</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="152">
@@ -25157,64 +25157,64 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>510.12</v>
+        <v>255.06</v>
       </c>
       <c r="C152" t="n">
-        <v>492.04</v>
+        <v>246.02</v>
       </c>
       <c r="D152" t="n">
-        <v>490.84</v>
+        <v>245.42</v>
       </c>
       <c r="E152" t="n">
-        <v>478.44</v>
+        <v>239.22</v>
       </c>
       <c r="F152" t="n">
-        <v>494.28</v>
+        <v>247.14</v>
       </c>
       <c r="G152" t="n">
-        <v>487.38</v>
+        <v>243.69</v>
       </c>
       <c r="H152" t="n">
-        <v>471.54</v>
+        <v>235.77</v>
       </c>
       <c r="I152" t="n">
-        <v>478.78</v>
+        <v>239.39</v>
       </c>
       <c r="J152" t="n">
-        <v>481.88</v>
+        <v>240.94</v>
       </c>
       <c r="K152" t="n">
-        <v>463.62</v>
+        <v>231.81</v>
       </c>
       <c r="L152" t="n">
-        <v>452.78</v>
+        <v>226.39</v>
       </c>
       <c r="M152" t="n">
-        <v>458.98</v>
+        <v>229.49</v>
       </c>
       <c r="N152" t="n">
-        <v>505.12</v>
+        <v>252.56</v>
       </c>
       <c r="O152" t="n">
-        <v>479.12</v>
+        <v>239.56</v>
       </c>
       <c r="P152" t="n">
-        <v>499.62</v>
+        <v>249.81</v>
       </c>
       <c r="Q152" t="n">
-        <v>500.66</v>
+        <v>250.33</v>
       </c>
       <c r="R152" t="n">
-        <v>445.02</v>
+        <v>222.51</v>
       </c>
       <c r="S152" t="n">
-        <v>397.66</v>
+        <v>198.83</v>
       </c>
       <c r="T152" t="n">
-        <v>432.62</v>
+        <v>216.31</v>
       </c>
       <c r="U152" t="n">
-        <v>434.68</v>
+        <v>217.34</v>
       </c>
       <c r="V152" t="n">
         <v>0</v>
@@ -25223,49 +25223,49 @@
         <v>0</v>
       </c>
       <c r="X152" t="n">
-        <v>329.8</v>
+        <v>164.9</v>
       </c>
       <c r="Y152" t="n">
         <v>0</v>
       </c>
       <c r="Z152" t="n">
-        <v>473.62</v>
+        <v>236.81</v>
       </c>
       <c r="AA152" t="n">
-        <v>464.82</v>
+        <v>232.41</v>
       </c>
       <c r="AB152" t="n">
-        <v>465.18</v>
+        <v>232.59</v>
       </c>
       <c r="AC152" t="n">
-        <v>486.36</v>
+        <v>243.18</v>
       </c>
       <c r="AD152" t="n">
-        <v>463.28</v>
+        <v>231.64</v>
       </c>
       <c r="AE152" t="n">
-        <v>467.42</v>
+        <v>233.71</v>
       </c>
       <c r="AF152" t="n">
-        <v>481.18</v>
+        <v>240.59</v>
       </c>
       <c r="AG152" t="n">
-        <v>520.46</v>
+        <v>260.23</v>
       </c>
       <c r="AH152" t="n">
-        <v>477.22</v>
+        <v>238.61</v>
       </c>
       <c r="AI152" t="n">
-        <v>503.24</v>
+        <v>251.62</v>
       </c>
       <c r="AJ152" t="n">
-        <v>460.86</v>
+        <v>230.43</v>
       </c>
       <c r="AK152" t="n">
-        <v>449.84</v>
+        <v>224.92</v>
       </c>
       <c r="AL152" t="n">
-        <v>463.8</v>
+        <v>231.9</v>
       </c>
       <c r="AM152" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="AQ152" t="n">
-        <v>466.9</v>
+        <v>233.45</v>
       </c>
       <c r="AR152" t="n">
-        <v>480.16</v>
+        <v>240.08</v>
       </c>
       <c r="AS152" t="n">
         <v>0</v>
@@ -25292,25 +25292,25 @@
         <v>0</v>
       </c>
       <c r="AU152" t="n">
-        <v>436.42</v>
+        <v>218.21</v>
       </c>
       <c r="AV152" t="n">
-        <v>451.74</v>
+        <v>225.87</v>
       </c>
       <c r="AW152" t="n">
         <v>0</v>
       </c>
       <c r="AX152" t="n">
-        <v>381.12</v>
+        <v>190.56</v>
       </c>
       <c r="AY152" t="n">
-        <v>356.32</v>
+        <v>178.16</v>
       </c>
       <c r="AZ152" t="n">
-        <v>410.24</v>
+        <v>205.12</v>
       </c>
       <c r="BA152" t="n">
-        <v>398.7</v>
+        <v>199.35</v>
       </c>
     </row>
     <row r="153">
@@ -25320,64 +25320,64 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>456.04</v>
+        <v>228.02</v>
       </c>
       <c r="C153" t="n">
-        <v>430.9</v>
+        <v>215.45</v>
       </c>
       <c r="D153" t="n">
-        <v>437.96</v>
+        <v>218.98</v>
       </c>
       <c r="E153" t="n">
-        <v>416.96</v>
+        <v>208.48</v>
       </c>
       <c r="F153" t="n">
-        <v>435.56</v>
+        <v>217.78</v>
       </c>
       <c r="G153" t="n">
-        <v>431.24</v>
+        <v>215.62</v>
       </c>
       <c r="H153" t="n">
-        <v>408.34</v>
+        <v>204.17</v>
       </c>
       <c r="I153" t="n">
-        <v>425.04</v>
+        <v>212.52</v>
       </c>
       <c r="J153" t="n">
-        <v>418.16</v>
+        <v>209.08</v>
       </c>
       <c r="K153" t="n">
-        <v>415.92</v>
+        <v>207.96</v>
       </c>
       <c r="L153" t="n">
-        <v>388.36</v>
+        <v>194.18</v>
       </c>
       <c r="M153" t="n">
-        <v>403.18</v>
+        <v>201.59</v>
       </c>
       <c r="N153" t="n">
-        <v>430.9</v>
+        <v>215.45</v>
       </c>
       <c r="O153" t="n">
-        <v>424.02</v>
+        <v>212.01</v>
       </c>
       <c r="P153" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="Q153" t="n">
-        <v>426.6</v>
+        <v>213.3</v>
       </c>
       <c r="R153" t="n">
-        <v>414.54</v>
+        <v>207.27</v>
       </c>
       <c r="S153" t="n">
-        <v>380.1</v>
+        <v>190.05</v>
       </c>
       <c r="T153" t="n">
-        <v>392.66</v>
+        <v>196.33</v>
       </c>
       <c r="U153" t="n">
-        <v>354.6</v>
+        <v>177.3</v>
       </c>
       <c r="V153" t="n">
         <v>0</v>
@@ -25386,49 +25386,49 @@
         <v>0</v>
       </c>
       <c r="X153" t="n">
-        <v>323.78</v>
+        <v>161.89</v>
       </c>
       <c r="Y153" t="n">
         <v>0</v>
       </c>
       <c r="Z153" t="n">
-        <v>408.86</v>
+        <v>204.43</v>
       </c>
       <c r="AA153" t="n">
-        <v>388.7</v>
+        <v>194.35</v>
       </c>
       <c r="AB153" t="n">
-        <v>398.36</v>
+        <v>199.18</v>
       </c>
       <c r="AC153" t="n">
-        <v>418.5</v>
+        <v>209.25</v>
       </c>
       <c r="AD153" t="n">
-        <v>445.2</v>
+        <v>222.6</v>
       </c>
       <c r="AE153" t="n">
-        <v>404.72</v>
+        <v>202.36</v>
       </c>
       <c r="AF153" t="n">
-        <v>410.24</v>
+        <v>205.12</v>
       </c>
       <c r="AG153" t="n">
-        <v>437.28</v>
+        <v>218.64</v>
       </c>
       <c r="AH153" t="n">
-        <v>390.26</v>
+        <v>195.13</v>
       </c>
       <c r="AI153" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="AJ153" t="n">
-        <v>410.4</v>
+        <v>205.2</v>
       </c>
       <c r="AK153" t="n">
-        <v>388.18</v>
+        <v>194.09</v>
       </c>
       <c r="AL153" t="n">
-        <v>382.5</v>
+        <v>191.25</v>
       </c>
       <c r="AM153" t="n">
         <v>0</v>
@@ -25443,10 +25443,10 @@
         <v>0</v>
       </c>
       <c r="AQ153" t="n">
-        <v>397.84</v>
+        <v>198.92</v>
       </c>
       <c r="AR153" t="n">
-        <v>391.28</v>
+        <v>195.64</v>
       </c>
       <c r="AS153" t="n">
         <v>0</v>
@@ -25455,25 +25455,25 @@
         <v>0</v>
       </c>
       <c r="AU153" t="n">
-        <v>374.58</v>
+        <v>187.29</v>
       </c>
       <c r="AV153" t="n">
-        <v>368.38</v>
+        <v>184.19</v>
       </c>
       <c r="AW153" t="n">
         <v>0</v>
       </c>
       <c r="AX153" t="n">
-        <v>312.58</v>
+        <v>156.29</v>
       </c>
       <c r="AY153" t="n">
-        <v>307.94</v>
+        <v>153.97</v>
       </c>
       <c r="AZ153" t="n">
-        <v>358.06</v>
+        <v>179.03</v>
       </c>
       <c r="BA153" t="n">
-        <v>328.6</v>
+        <v>164.3</v>
       </c>
     </row>
     <row r="154">
@@ -25483,64 +25483,64 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>366.5</v>
+        <v>183.25</v>
       </c>
       <c r="C154" t="n">
-        <v>340.34</v>
+        <v>170.17</v>
       </c>
       <c r="D154" t="n">
-        <v>312.66</v>
+        <v>156.33</v>
       </c>
       <c r="E154" t="n">
-        <v>325.66</v>
+        <v>162.83</v>
       </c>
       <c r="F154" t="n">
-        <v>344.34</v>
+        <v>172.17</v>
       </c>
       <c r="G154" t="n">
-        <v>332.5</v>
+        <v>166.25</v>
       </c>
       <c r="H154" t="n">
-        <v>320.5</v>
+        <v>160.25</v>
       </c>
       <c r="I154" t="n">
-        <v>323.5</v>
+        <v>161.75</v>
       </c>
       <c r="J154" t="n">
-        <v>312.5</v>
+        <v>156.25</v>
       </c>
       <c r="K154" t="n">
-        <v>290.84</v>
+        <v>145.42</v>
       </c>
       <c r="L154" t="n">
-        <v>286.34</v>
+        <v>143.17</v>
       </c>
       <c r="M154" t="n">
-        <v>295.66</v>
+        <v>147.83</v>
       </c>
       <c r="N154" t="n">
-        <v>337.34</v>
+        <v>168.67</v>
       </c>
       <c r="O154" t="n">
-        <v>313.66</v>
+        <v>156.83</v>
       </c>
       <c r="P154" t="n">
-        <v>328.34</v>
+        <v>164.17</v>
       </c>
       <c r="Q154" t="n">
-        <v>322.16</v>
+        <v>161.08</v>
       </c>
       <c r="R154" t="n">
-        <v>275.5</v>
+        <v>137.75</v>
       </c>
       <c r="S154" t="n">
-        <v>264.5</v>
+        <v>132.25</v>
       </c>
       <c r="T154" t="n">
-        <v>287.5</v>
+        <v>143.75</v>
       </c>
       <c r="U154" t="n">
-        <v>275.5</v>
+        <v>137.75</v>
       </c>
       <c r="V154" t="n">
         <v>0</v>
@@ -25549,49 +25549,49 @@
         <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>252.16</v>
+        <v>126.08</v>
       </c>
       <c r="Y154" t="n">
         <v>0</v>
       </c>
       <c r="Z154" t="n">
-        <v>314.84</v>
+        <v>157.42</v>
       </c>
       <c r="AA154" t="n">
-        <v>283.16</v>
+        <v>141.58</v>
       </c>
       <c r="AB154" t="n">
-        <v>280.34</v>
+        <v>140.17</v>
       </c>
       <c r="AC154" t="n">
-        <v>299.5</v>
+        <v>149.75</v>
       </c>
       <c r="AD154" t="n">
-        <v>290.16</v>
+        <v>145.08</v>
       </c>
       <c r="AE154" t="n">
-        <v>297.34</v>
+        <v>148.67</v>
       </c>
       <c r="AF154" t="n">
-        <v>283</v>
+        <v>141.5</v>
       </c>
       <c r="AG154" t="n">
-        <v>311.84</v>
+        <v>155.92</v>
       </c>
       <c r="AH154" t="n">
-        <v>287.66</v>
+        <v>143.83</v>
       </c>
       <c r="AI154" t="n">
-        <v>311.66</v>
+        <v>155.83</v>
       </c>
       <c r="AJ154" t="n">
-        <v>296.66</v>
+        <v>148.33</v>
       </c>
       <c r="AK154" t="n">
-        <v>289.16</v>
+        <v>144.58</v>
       </c>
       <c r="AL154" t="n">
-        <v>278.16</v>
+        <v>139.08</v>
       </c>
       <c r="AM154" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="AQ154" t="n">
-        <v>299.34</v>
+        <v>149.67</v>
       </c>
       <c r="AR154" t="n">
-        <v>288.84</v>
+        <v>144.42</v>
       </c>
       <c r="AS154" t="n">
         <v>0</v>
@@ -25618,25 +25618,25 @@
         <v>0</v>
       </c>
       <c r="AU154" t="n">
-        <v>273</v>
+        <v>136.5</v>
       </c>
       <c r="AV154" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="AW154" t="n">
         <v>0</v>
       </c>
       <c r="AX154" t="n">
-        <v>212.16</v>
+        <v>106.08</v>
       </c>
       <c r="AY154" t="n">
-        <v>227.84</v>
+        <v>113.92</v>
       </c>
       <c r="AZ154" t="n">
-        <v>241</v>
+        <v>120.5</v>
       </c>
       <c r="BA154" t="n">
-        <v>213.34</v>
+        <v>106.67</v>
       </c>
     </row>
     <row r="155">
@@ -25646,64 +25646,64 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>250.42</v>
+        <v>125.21</v>
       </c>
       <c r="C155" t="n">
-        <v>236.12</v>
+        <v>118.06</v>
       </c>
       <c r="D155" t="n">
-        <v>251.96</v>
+        <v>125.98</v>
       </c>
       <c r="E155" t="n">
-        <v>221.66</v>
+        <v>110.83</v>
       </c>
       <c r="F155" t="n">
-        <v>231.12</v>
+        <v>115.56</v>
       </c>
       <c r="G155" t="n">
-        <v>213.04</v>
+        <v>106.52</v>
       </c>
       <c r="H155" t="n">
-        <v>231.3</v>
+        <v>115.65</v>
       </c>
       <c r="I155" t="n">
-        <v>217.52</v>
+        <v>108.76</v>
       </c>
       <c r="J155" t="n">
-        <v>232.16</v>
+        <v>116.08</v>
       </c>
       <c r="K155" t="n">
-        <v>186.86</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="L155" t="n">
-        <v>208.04</v>
+        <v>104.02</v>
       </c>
       <c r="M155" t="n">
-        <v>191</v>
+        <v>95.5</v>
       </c>
       <c r="N155" t="n">
-        <v>226.98</v>
+        <v>113.49</v>
       </c>
       <c r="O155" t="n">
-        <v>209.26</v>
+        <v>104.63</v>
       </c>
       <c r="P155" t="n">
-        <v>220.78</v>
+        <v>110.39</v>
       </c>
       <c r="Q155" t="n">
-        <v>208.9</v>
+        <v>104.45</v>
       </c>
       <c r="R155" t="n">
-        <v>189.96</v>
+        <v>94.98</v>
       </c>
       <c r="S155" t="n">
-        <v>174.46</v>
+        <v>87.23</v>
       </c>
       <c r="T155" t="n">
-        <v>231.3</v>
+        <v>115.65</v>
       </c>
       <c r="U155" t="n">
-        <v>224.92</v>
+        <v>112.46</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -25712,49 +25712,49 @@
         <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>226.82</v>
+        <v>113.41</v>
       </c>
       <c r="Y155" t="n">
         <v>0</v>
       </c>
       <c r="Z155" t="n">
-        <v>204.08</v>
+        <v>102.04</v>
       </c>
       <c r="AA155" t="n">
-        <v>193.76</v>
+        <v>96.88</v>
       </c>
       <c r="AB155" t="n">
-        <v>182.56</v>
+        <v>91.28</v>
       </c>
       <c r="AC155" t="n">
-        <v>207.52</v>
+        <v>103.76</v>
       </c>
       <c r="AD155" t="n">
-        <v>206.66</v>
+        <v>103.33</v>
       </c>
       <c r="AE155" t="n">
-        <v>189.44</v>
+        <v>94.72</v>
       </c>
       <c r="AF155" t="n">
-        <v>163.96</v>
+        <v>81.98</v>
       </c>
       <c r="AG155" t="n">
-        <v>196.16</v>
+        <v>98.08</v>
       </c>
       <c r="AH155" t="n">
-        <v>197.36</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="AI155" t="n">
-        <v>200.12</v>
+        <v>100.06</v>
       </c>
       <c r="AJ155" t="n">
-        <v>195.98</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="AK155" t="n">
-        <v>179.46</v>
+        <v>89.73</v>
       </c>
       <c r="AL155" t="n">
-        <v>200.64</v>
+        <v>100.32</v>
       </c>
       <c r="AM155" t="n">
         <v>0</v>
@@ -25769,10 +25769,10 @@
         <v>0</v>
       </c>
       <c r="AQ155" t="n">
-        <v>202.54</v>
+        <v>101.27</v>
       </c>
       <c r="AR155" t="n">
-        <v>189.28</v>
+        <v>94.64</v>
       </c>
       <c r="AS155" t="n">
         <v>0</v>
@@ -25781,25 +25781,25 @@
         <v>0</v>
       </c>
       <c r="AU155" t="n">
-        <v>189.62</v>
+        <v>94.81</v>
       </c>
       <c r="AV155" t="n">
-        <v>168.44</v>
+        <v>84.22</v>
       </c>
       <c r="AW155" t="n">
         <v>0</v>
       </c>
       <c r="AX155" t="n">
-        <v>132.62</v>
+        <v>66.31</v>
       </c>
       <c r="AY155" t="n">
-        <v>157.76</v>
+        <v>78.88</v>
       </c>
       <c r="AZ155" t="n">
-        <v>152.24</v>
+        <v>76.12</v>
       </c>
       <c r="BA155" t="n">
-        <v>134.34</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="156">
@@ -25809,64 +25809,64 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>166.34</v>
+        <v>83.17</v>
       </c>
       <c r="C156" t="n">
-        <v>178.5</v>
+        <v>89.25</v>
       </c>
       <c r="D156" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E156" t="n">
-        <v>184.5</v>
+        <v>92.25</v>
       </c>
       <c r="F156" t="n">
-        <v>149.34</v>
+        <v>74.67</v>
       </c>
       <c r="G156" t="n">
-        <v>160.5</v>
+        <v>80.25</v>
       </c>
       <c r="H156" t="n">
-        <v>169.34</v>
+        <v>84.67</v>
       </c>
       <c r="I156" t="n">
-        <v>160.84</v>
+        <v>80.42</v>
       </c>
       <c r="J156" t="n">
-        <v>175.84</v>
+        <v>87.92</v>
       </c>
       <c r="K156" t="n">
-        <v>107.66</v>
+        <v>53.83</v>
       </c>
       <c r="L156" t="n">
-        <v>139.16</v>
+        <v>69.58</v>
       </c>
       <c r="M156" t="n">
-        <v>119.34</v>
+        <v>59.67</v>
       </c>
       <c r="N156" t="n">
-        <v>146.16</v>
+        <v>73.08</v>
       </c>
       <c r="O156" t="n">
-        <v>155.34</v>
+        <v>77.67</v>
       </c>
       <c r="P156" t="n">
-        <v>137</v>
+        <v>68.5</v>
       </c>
       <c r="Q156" t="n">
-        <v>129</v>
+        <v>64.5</v>
       </c>
       <c r="R156" t="n">
-        <v>139.5</v>
+        <v>69.75</v>
       </c>
       <c r="S156" t="n">
-        <v>116.84</v>
+        <v>58.42</v>
       </c>
       <c r="T156" t="n">
-        <v>162.16</v>
+        <v>81.08</v>
       </c>
       <c r="U156" t="n">
-        <v>146.5</v>
+        <v>73.25</v>
       </c>
       <c r="V156" t="n">
         <v>0</v>
@@ -25875,49 +25875,49 @@
         <v>0</v>
       </c>
       <c r="X156" t="n">
-        <v>206.16</v>
+        <v>103.08</v>
       </c>
       <c r="Y156" t="n">
         <v>0</v>
       </c>
       <c r="Z156" t="n">
-        <v>126.34</v>
+        <v>63.17</v>
       </c>
       <c r="AA156" t="n">
-        <v>111.66</v>
+        <v>55.83</v>
       </c>
       <c r="AB156" t="n">
-        <v>105.66</v>
+        <v>52.83</v>
       </c>
       <c r="AC156" t="n">
-        <v>141</v>
+        <v>70.5</v>
       </c>
       <c r="AD156" t="n">
-        <v>109.5</v>
+        <v>54.75</v>
       </c>
       <c r="AE156" t="n">
-        <v>126.16</v>
+        <v>63.08</v>
       </c>
       <c r="AF156" t="n">
-        <v>111.5</v>
+        <v>55.75</v>
       </c>
       <c r="AG156" t="n">
-        <v>125.84</v>
+        <v>62.92</v>
       </c>
       <c r="AH156" t="n">
-        <v>107.34</v>
+        <v>53.67</v>
       </c>
       <c r="AI156" t="n">
-        <v>127</v>
+        <v>63.5</v>
       </c>
       <c r="AJ156" t="n">
-        <v>127.34</v>
+        <v>63.67</v>
       </c>
       <c r="AK156" t="n">
-        <v>106.16</v>
+        <v>53.08</v>
       </c>
       <c r="AL156" t="n">
-        <v>121.34</v>
+        <v>60.67</v>
       </c>
       <c r="AM156" t="n">
         <v>0</v>
@@ -25932,10 +25932,10 @@
         <v>0</v>
       </c>
       <c r="AQ156" t="n">
-        <v>117.66</v>
+        <v>58.83</v>
       </c>
       <c r="AR156" t="n">
-        <v>113.5</v>
+        <v>56.75</v>
       </c>
       <c r="AS156" t="n">
         <v>0</v>
@@ -25944,25 +25944,25 @@
         <v>0</v>
       </c>
       <c r="AU156" t="n">
-        <v>101.5</v>
+        <v>50.75</v>
       </c>
       <c r="AV156" t="n">
-        <v>105.34</v>
+        <v>52.67</v>
       </c>
       <c r="AW156" t="n">
         <v>0</v>
       </c>
       <c r="AX156" t="n">
-        <v>82.5</v>
+        <v>41.25</v>
       </c>
       <c r="AY156" t="n">
-        <v>92.34</v>
+        <v>46.17</v>
       </c>
       <c r="AZ156" t="n">
-        <v>84.5</v>
+        <v>42.25</v>
       </c>
       <c r="BA156" t="n">
-        <v>84.66</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="157">
@@ -25972,64 +25972,64 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>131.4</v>
+        <v>65.7</v>
       </c>
       <c r="C157" t="n">
-        <v>141.92</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>139.32</v>
+        <v>69.66</v>
       </c>
       <c r="E157" t="n">
-        <v>136.4</v>
+        <v>68.2</v>
       </c>
       <c r="F157" t="n">
-        <v>121.24</v>
+        <v>60.62</v>
       </c>
       <c r="G157" t="n">
-        <v>116.26</v>
+        <v>58.13</v>
       </c>
       <c r="H157" t="n">
-        <v>129</v>
+        <v>64.5</v>
       </c>
       <c r="I157" t="n">
-        <v>129.86</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="J157" t="n">
-        <v>132.78</v>
+        <v>66.39</v>
       </c>
       <c r="K157" t="n">
-        <v>69.40000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="L157" t="n">
-        <v>105.4</v>
+        <v>52.7</v>
       </c>
       <c r="M157" t="n">
-        <v>74.06</v>
+        <v>37.03</v>
       </c>
       <c r="N157" t="n">
-        <v>95.06</v>
+        <v>47.53</v>
       </c>
       <c r="O157" t="n">
-        <v>107.98</v>
+        <v>53.99</v>
       </c>
       <c r="P157" t="n">
-        <v>86.45999999999999</v>
+        <v>43.23</v>
       </c>
       <c r="Q157" t="n">
-        <v>77.68000000000001</v>
+        <v>38.84</v>
       </c>
       <c r="R157" t="n">
-        <v>106.78</v>
+        <v>53.39</v>
       </c>
       <c r="S157" t="n">
-        <v>80.42</v>
+        <v>40.21</v>
       </c>
       <c r="T157" t="n">
-        <v>118.66</v>
+        <v>59.33</v>
       </c>
       <c r="U157" t="n">
-        <v>119.7</v>
+        <v>59.85</v>
       </c>
       <c r="V157" t="n">
         <v>0</v>
@@ -26038,49 +26038,49 @@
         <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>165.86</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="Y157" t="n">
         <v>0</v>
       </c>
       <c r="Z157" t="n">
-        <v>78.7</v>
+        <v>39.35</v>
       </c>
       <c r="AA157" t="n">
-        <v>69.92</v>
+        <v>34.96</v>
       </c>
       <c r="AB157" t="n">
-        <v>81.28</v>
+        <v>40.64</v>
       </c>
       <c r="AC157" t="n">
-        <v>110.06</v>
+        <v>55.03</v>
       </c>
       <c r="AD157" t="n">
-        <v>70.78</v>
+        <v>35.39</v>
       </c>
       <c r="AE157" t="n">
-        <v>65.95999999999999</v>
+        <v>32.98</v>
       </c>
       <c r="AF157" t="n">
-        <v>60.62</v>
+        <v>30.31</v>
       </c>
       <c r="AG157" t="n">
-        <v>64.92</v>
+        <v>32.46</v>
       </c>
       <c r="AH157" t="n">
-        <v>78.7</v>
+        <v>39.35</v>
       </c>
       <c r="AI157" t="n">
-        <v>88.18000000000001</v>
+        <v>44.09</v>
       </c>
       <c r="AJ157" t="n">
-        <v>85.26000000000001</v>
+        <v>42.63</v>
       </c>
       <c r="AK157" t="n">
-        <v>79.92</v>
+        <v>39.96</v>
       </c>
       <c r="AL157" t="n">
-        <v>97.14</v>
+        <v>48.57</v>
       </c>
       <c r="AM157" t="n">
         <v>0</v>
@@ -26095,10 +26095,10 @@
         <v>0</v>
       </c>
       <c r="AQ157" t="n">
-        <v>85.59999999999999</v>
+        <v>42.8</v>
       </c>
       <c r="AR157" t="n">
-        <v>73.2</v>
+        <v>36.6</v>
       </c>
       <c r="AS157" t="n">
         <v>0</v>
@@ -26107,25 +26107,25 @@
         <v>0</v>
       </c>
       <c r="AU157" t="n">
-        <v>68.54000000000001</v>
+        <v>34.27</v>
       </c>
       <c r="AV157" t="n">
-        <v>52.18</v>
+        <v>26.09</v>
       </c>
       <c r="AW157" t="n">
         <v>0</v>
       </c>
       <c r="AX157" t="n">
-        <v>60.62</v>
+        <v>30.31</v>
       </c>
       <c r="AY157" t="n">
-        <v>63.2</v>
+        <v>31.6</v>
       </c>
       <c r="AZ157" t="n">
-        <v>52.36</v>
+        <v>26.18</v>
       </c>
       <c r="BA157" t="n">
-        <v>63.04</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="158">
@@ -26135,64 +26135,64 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>165.86</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>176.7</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>194.1</v>
+        <v>97.05</v>
       </c>
       <c r="E158" t="n">
-        <v>189.62</v>
+        <v>94.81</v>
       </c>
       <c r="F158" t="n">
-        <v>162.92</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>157.42</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="H158" t="n">
-        <v>170.5</v>
+        <v>85.25</v>
       </c>
       <c r="I158" t="n">
-        <v>184.46</v>
+        <v>92.23</v>
       </c>
       <c r="J158" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="K158" t="n">
-        <v>116.26</v>
+        <v>58.13</v>
       </c>
       <c r="L158" t="n">
-        <v>145.36</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="M158" t="n">
-        <v>119.86</v>
+        <v>59.93</v>
       </c>
       <c r="N158" t="n">
-        <v>117.28</v>
+        <v>58.64</v>
       </c>
       <c r="O158" t="n">
-        <v>159.66</v>
+        <v>79.83</v>
       </c>
       <c r="P158" t="n">
-        <v>143.64</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="Q158" t="n">
-        <v>142.94</v>
+        <v>71.47</v>
       </c>
       <c r="R158" t="n">
-        <v>152.76</v>
+        <v>76.38</v>
       </c>
       <c r="S158" t="n">
-        <v>131.06</v>
+        <v>65.53</v>
       </c>
       <c r="T158" t="n">
-        <v>156.9</v>
+        <v>78.45</v>
       </c>
       <c r="U158" t="n">
-        <v>139.32</v>
+        <v>69.66</v>
       </c>
       <c r="V158" t="n">
         <v>0</v>
@@ -26201,49 +26201,49 @@
         <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>196.68</v>
+        <v>98.34</v>
       </c>
       <c r="Y158" t="n">
         <v>0</v>
       </c>
       <c r="Z158" t="n">
-        <v>140.18</v>
+        <v>70.09</v>
       </c>
       <c r="AA158" t="n">
-        <v>126.42</v>
+        <v>63.21</v>
       </c>
       <c r="AB158" t="n">
-        <v>115.04</v>
+        <v>57.52</v>
       </c>
       <c r="AC158" t="n">
-        <v>136.74</v>
+        <v>68.37</v>
       </c>
       <c r="AD158" t="n">
-        <v>130.38</v>
+        <v>65.19</v>
       </c>
       <c r="AE158" t="n">
-        <v>125.9</v>
+        <v>62.95</v>
       </c>
       <c r="AF158" t="n">
-        <v>118.84</v>
+        <v>59.42</v>
       </c>
       <c r="AG158" t="n">
-        <v>126.58</v>
+        <v>63.29</v>
       </c>
       <c r="AH158" t="n">
-        <v>114.36</v>
+        <v>57.18</v>
       </c>
       <c r="AI158" t="n">
-        <v>125.04</v>
+        <v>62.52</v>
       </c>
       <c r="AJ158" t="n">
-        <v>132.78</v>
+        <v>66.39</v>
       </c>
       <c r="AK158" t="n">
-        <v>121.94</v>
+        <v>60.97</v>
       </c>
       <c r="AL158" t="n">
-        <v>136.22</v>
+        <v>68.11</v>
       </c>
       <c r="AM158" t="n">
         <v>0</v>
@@ -26258,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="AQ158" t="n">
-        <v>134.16</v>
+        <v>67.08</v>
       </c>
       <c r="AR158" t="n">
-        <v>110.56</v>
+        <v>55.28</v>
       </c>
       <c r="AS158" t="n">
         <v>0</v>
@@ -26270,25 +26270,25 @@
         <v>0</v>
       </c>
       <c r="AU158" t="n">
-        <v>79.06</v>
+        <v>39.53</v>
       </c>
       <c r="AV158" t="n">
-        <v>88.7</v>
+        <v>44.35</v>
       </c>
       <c r="AW158" t="n">
         <v>0</v>
       </c>
       <c r="AX158" t="n">
-        <v>78.7</v>
+        <v>39.35</v>
       </c>
       <c r="AY158" t="n">
-        <v>88.7</v>
+        <v>44.35</v>
       </c>
       <c r="AZ158" t="n">
-        <v>81.64</v>
+        <v>40.82</v>
       </c>
       <c r="BA158" t="n">
-        <v>100.06</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="159">
@@ -26298,64 +26298,64 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>203.94</v>
+        <v>101.97</v>
       </c>
       <c r="C159" t="n">
-        <v>166.92</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>188.54</v>
+        <v>94.27</v>
       </c>
       <c r="E159" t="n">
-        <v>206.26</v>
+        <v>103.13</v>
       </c>
       <c r="F159" t="n">
-        <v>203.16</v>
+        <v>101.58</v>
       </c>
       <c r="G159" t="n">
-        <v>198.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H159" t="n">
-        <v>208.6</v>
+        <v>104.3</v>
       </c>
       <c r="I159" t="n">
-        <v>213.42</v>
+        <v>106.71</v>
       </c>
       <c r="J159" t="n">
-        <v>168.78</v>
+        <v>84.39</v>
       </c>
       <c r="K159" t="n">
-        <v>191.48</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="L159" t="n">
-        <v>211.86</v>
+        <v>105.93</v>
       </c>
       <c r="M159" t="n">
-        <v>183.24</v>
+        <v>91.62</v>
       </c>
       <c r="N159" t="n">
-        <v>167.54</v>
+        <v>83.77</v>
       </c>
       <c r="O159" t="n">
-        <v>169.86</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="P159" t="n">
-        <v>189.62</v>
+        <v>94.81</v>
       </c>
       <c r="Q159" t="n">
-        <v>186.98</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="R159" t="n">
-        <v>161.32</v>
+        <v>80.66</v>
       </c>
       <c r="S159" t="n">
-        <v>138.44</v>
+        <v>69.22</v>
       </c>
       <c r="T159" t="n">
-        <v>164.88</v>
+        <v>82.44</v>
       </c>
       <c r="U159" t="n">
-        <v>173.28</v>
+        <v>86.64</v>
       </c>
       <c r="V159" t="n">
         <v>0</v>
@@ -26364,49 +26364,49 @@
         <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>210.16</v>
+        <v>105.08</v>
       </c>
       <c r="Y159" t="n">
         <v>0</v>
       </c>
       <c r="Z159" t="n">
-        <v>183.08</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="AA159" t="n">
-        <v>173.92</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="AB159" t="n">
-        <v>168.94</v>
+        <v>84.47</v>
       </c>
       <c r="AC159" t="n">
-        <v>193.82</v>
+        <v>96.91</v>
       </c>
       <c r="AD159" t="n">
-        <v>187.28</v>
+        <v>93.64</v>
       </c>
       <c r="AE159" t="n">
-        <v>186.04</v>
+        <v>93.02</v>
       </c>
       <c r="AF159" t="n">
-        <v>182.32</v>
+        <v>91.16</v>
       </c>
       <c r="AG159" t="n">
-        <v>189.78</v>
+        <v>94.89</v>
       </c>
       <c r="AH159" t="n">
-        <v>176.56</v>
+        <v>88.28</v>
       </c>
       <c r="AI159" t="n">
-        <v>192.12</v>
+        <v>96.06</v>
       </c>
       <c r="AJ159" t="n">
-        <v>184.48</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="AK159" t="n">
-        <v>174.22</v>
+        <v>87.11</v>
       </c>
       <c r="AL159" t="n">
-        <v>168.46</v>
+        <v>84.23</v>
       </c>
       <c r="AM159" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>0</v>
       </c>
       <c r="AQ159" t="n">
-        <v>179.52</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="AR159" t="n">
-        <v>158.98</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="AS159" t="n">
         <v>0</v>
@@ -26433,25 +26433,25 @@
         <v>0</v>
       </c>
       <c r="AU159" t="n">
-        <v>154.62</v>
+        <v>77.31</v>
       </c>
       <c r="AV159" t="n">
-        <v>137.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AW159" t="n">
         <v>0</v>
       </c>
       <c r="AX159" t="n">
-        <v>152.44</v>
+        <v>76.22</v>
       </c>
       <c r="AY159" t="n">
-        <v>148.4</v>
+        <v>74.2</v>
       </c>
       <c r="AZ159" t="n">
-        <v>157.58</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="BA159" t="n">
-        <v>164.12</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="160">
@@ -26461,64 +26461,64 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>318.62</v>
+        <v>159.31</v>
       </c>
       <c r="C160" t="n">
-        <v>342.9</v>
+        <v>171.45</v>
       </c>
       <c r="D160" t="n">
-        <v>317.24</v>
+        <v>158.62</v>
       </c>
       <c r="E160" t="n">
-        <v>343.92</v>
+        <v>171.96</v>
       </c>
       <c r="F160" t="n">
-        <v>308.1</v>
+        <v>154.05</v>
       </c>
       <c r="G160" t="n">
-        <v>310.86</v>
+        <v>155.43</v>
       </c>
       <c r="H160" t="n">
-        <v>306.04</v>
+        <v>153.02</v>
       </c>
       <c r="I160" t="n">
-        <v>317.76</v>
+        <v>158.88</v>
       </c>
       <c r="J160" t="n">
-        <v>339.46</v>
+        <v>169.73</v>
       </c>
       <c r="K160" t="n">
-        <v>287.62</v>
+        <v>143.81</v>
       </c>
       <c r="L160" t="n">
-        <v>307.08</v>
+        <v>153.54</v>
       </c>
       <c r="M160" t="n">
-        <v>282.78</v>
+        <v>141.39</v>
       </c>
       <c r="N160" t="n">
-        <v>267.46</v>
+        <v>133.73</v>
       </c>
       <c r="O160" t="n">
-        <v>319.3</v>
+        <v>159.65</v>
       </c>
       <c r="P160" t="n">
-        <v>300.88</v>
+        <v>150.44</v>
       </c>
       <c r="Q160" t="n">
-        <v>295.36</v>
+        <v>147.68</v>
       </c>
       <c r="R160" t="n">
-        <v>287.44</v>
+        <v>143.72</v>
       </c>
       <c r="S160" t="n">
-        <v>275.56</v>
+        <v>137.78</v>
       </c>
       <c r="T160" t="n">
-        <v>324.12</v>
+        <v>162.06</v>
       </c>
       <c r="U160" t="n">
-        <v>304.48</v>
+        <v>152.24</v>
       </c>
       <c r="V160" t="n">
         <v>0</v>
@@ -26527,49 +26527,49 @@
         <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>328.94</v>
+        <v>164.47</v>
       </c>
       <c r="Y160" t="n">
         <v>0</v>
       </c>
       <c r="Z160" t="n">
-        <v>293.82</v>
+        <v>146.91</v>
       </c>
       <c r="AA160" t="n">
-        <v>260.06</v>
+        <v>130.03</v>
       </c>
       <c r="AB160" t="n">
-        <v>273.32</v>
+        <v>136.66</v>
       </c>
       <c r="AC160" t="n">
-        <v>312.06</v>
+        <v>156.03</v>
       </c>
       <c r="AD160" t="n">
-        <v>285.54</v>
+        <v>142.77</v>
       </c>
       <c r="AE160" t="n">
-        <v>271.6</v>
+        <v>135.8</v>
       </c>
       <c r="AF160" t="n">
-        <v>259.36</v>
+        <v>129.68</v>
       </c>
       <c r="AG160" t="n">
-        <v>265.56</v>
+        <v>132.78</v>
       </c>
       <c r="AH160" t="n">
-        <v>254.38</v>
+        <v>127.19</v>
       </c>
       <c r="AI160" t="n">
-        <v>288.3</v>
+        <v>144.15</v>
       </c>
       <c r="AJ160" t="n">
-        <v>291.06</v>
+        <v>145.53</v>
       </c>
       <c r="AK160" t="n">
-        <v>271.42</v>
+        <v>135.71</v>
       </c>
       <c r="AL160" t="n">
-        <v>292.44</v>
+        <v>146.22</v>
       </c>
       <c r="AM160" t="n">
         <v>0</v>
@@ -26584,10 +26584,10 @@
         <v>0</v>
       </c>
       <c r="AQ160" t="n">
-        <v>287.44</v>
+        <v>143.72</v>
       </c>
       <c r="AR160" t="n">
-        <v>267.12</v>
+        <v>133.56</v>
       </c>
       <c r="AS160" t="n">
         <v>0</v>
@@ -26596,25 +26596,25 @@
         <v>0</v>
       </c>
       <c r="AU160" t="n">
-        <v>224.76</v>
+        <v>112.38</v>
       </c>
       <c r="AV160" t="n">
-        <v>246.62</v>
+        <v>123.31</v>
       </c>
       <c r="AW160" t="n">
         <v>0</v>
       </c>
       <c r="AX160" t="n">
-        <v>192.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AY160" t="n">
-        <v>202.88</v>
+        <v>101.44</v>
       </c>
       <c r="AZ160" t="n">
-        <v>211.14</v>
+        <v>105.57</v>
       </c>
       <c r="BA160" t="n">
-        <v>194.96</v>
+        <v>97.48</v>
       </c>
     </row>
     <row r="161">
@@ -26624,64 +26624,64 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>395.34</v>
+        <v>197.67</v>
       </c>
       <c r="C161" t="n">
-        <v>408.5</v>
+        <v>204.25</v>
       </c>
       <c r="D161" t="n">
-        <v>394.66</v>
+        <v>197.33</v>
       </c>
       <c r="E161" t="n">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="F161" t="n">
-        <v>405.66</v>
+        <v>202.83</v>
       </c>
       <c r="G161" t="n">
-        <v>409.66</v>
+        <v>204.83</v>
       </c>
       <c r="H161" t="n">
-        <v>392.84</v>
+        <v>196.42</v>
       </c>
       <c r="I161" t="n">
-        <v>425.5</v>
+        <v>212.75</v>
       </c>
       <c r="J161" t="n">
-        <v>413.66</v>
+        <v>206.83</v>
       </c>
       <c r="K161" t="n">
-        <v>394.34</v>
+        <v>197.17</v>
       </c>
       <c r="L161" t="n">
-        <v>421</v>
+        <v>210.5</v>
       </c>
       <c r="M161" t="n">
-        <v>377.84</v>
+        <v>188.92</v>
       </c>
       <c r="N161" t="n">
-        <v>377.16</v>
+        <v>188.58</v>
       </c>
       <c r="O161" t="n">
-        <v>402.34</v>
+        <v>201.17</v>
       </c>
       <c r="P161" t="n">
-        <v>397.84</v>
+        <v>198.92</v>
       </c>
       <c r="Q161" t="n">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="R161" t="n">
-        <v>347.34</v>
+        <v>173.67</v>
       </c>
       <c r="S161" t="n">
-        <v>346.34</v>
+        <v>173.17</v>
       </c>
       <c r="T161" t="n">
-        <v>393.34</v>
+        <v>196.67</v>
       </c>
       <c r="U161" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="V161" t="n">
         <v>0</v>
@@ -26690,49 +26690,49 @@
         <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>349.66</v>
+        <v>174.83</v>
       </c>
       <c r="Y161" t="n">
         <v>0</v>
       </c>
       <c r="Z161" t="n">
-        <v>379</v>
+        <v>189.5</v>
       </c>
       <c r="AA161" t="n">
-        <v>353.16</v>
+        <v>176.58</v>
       </c>
       <c r="AB161" t="n">
-        <v>381.16</v>
+        <v>190.58</v>
       </c>
       <c r="AC161" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="AD161" t="n">
-        <v>385.5</v>
+        <v>192.75</v>
       </c>
       <c r="AE161" t="n">
-        <v>390.34</v>
+        <v>195.17</v>
       </c>
       <c r="AF161" t="n">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="AG161" t="n">
-        <v>302.66</v>
+        <v>151.33</v>
       </c>
       <c r="AH161" t="n">
-        <v>346.16</v>
+        <v>173.08</v>
       </c>
       <c r="AI161" t="n">
-        <v>396.34</v>
+        <v>198.17</v>
       </c>
       <c r="AJ161" t="n">
-        <v>371</v>
+        <v>185.5</v>
       </c>
       <c r="AK161" t="n">
-        <v>350.66</v>
+        <v>175.33</v>
       </c>
       <c r="AL161" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="AM161" t="n">
         <v>0</v>
@@ -26747,10 +26747,10 @@
         <v>0</v>
       </c>
       <c r="AQ161" t="n">
-        <v>363.34</v>
+        <v>181.67</v>
       </c>
       <c r="AR161" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="AS161" t="n">
         <v>0</v>
@@ -26759,25 +26759,25 @@
         <v>0</v>
       </c>
       <c r="AU161" t="n">
-        <v>311.84</v>
+        <v>155.92</v>
       </c>
       <c r="AV161" t="n">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="AW161" t="n">
         <v>0</v>
       </c>
       <c r="AX161" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="AY161" t="n">
-        <v>298.5</v>
+        <v>149.25</v>
       </c>
       <c r="AZ161" t="n">
-        <v>313.16</v>
+        <v>156.58</v>
       </c>
       <c r="BA161" t="n">
-        <v>290.16</v>
+        <v>145.08</v>
       </c>
     </row>
     <row r="162">
@@ -26787,64 +26787,64 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>395.08</v>
+        <v>197.54</v>
       </c>
       <c r="C162" t="n">
-        <v>391.46</v>
+        <v>195.73</v>
       </c>
       <c r="D162" t="n">
-        <v>384.4</v>
+        <v>192.2</v>
       </c>
       <c r="E162" t="n">
-        <v>403.18</v>
+        <v>201.59</v>
       </c>
       <c r="F162" t="n">
-        <v>417.98</v>
+        <v>208.99</v>
       </c>
       <c r="G162" t="n">
-        <v>420.06</v>
+        <v>210.03</v>
       </c>
       <c r="H162" t="n">
-        <v>416.08</v>
+        <v>208.04</v>
       </c>
       <c r="I162" t="n">
-        <v>439</v>
+        <v>219.5</v>
       </c>
       <c r="J162" t="n">
-        <v>401.62</v>
+        <v>200.81</v>
       </c>
       <c r="K162" t="n">
-        <v>380.78</v>
+        <v>190.39</v>
       </c>
       <c r="L162" t="n">
-        <v>411.96</v>
+        <v>205.98</v>
       </c>
       <c r="M162" t="n">
-        <v>394.74</v>
+        <v>197.37</v>
       </c>
       <c r="N162" t="n">
-        <v>379.24</v>
+        <v>189.62</v>
       </c>
       <c r="O162" t="n">
-        <v>384.06</v>
+        <v>192.03</v>
       </c>
       <c r="P162" t="n">
-        <v>395.94</v>
+        <v>197.97</v>
       </c>
       <c r="Q162" t="n">
-        <v>400.08</v>
+        <v>200.04</v>
       </c>
       <c r="R162" t="n">
-        <v>352.36</v>
+        <v>176.18</v>
       </c>
       <c r="S162" t="n">
-        <v>319.3</v>
+        <v>159.65</v>
       </c>
       <c r="T162" t="n">
-        <v>354.96</v>
+        <v>177.48</v>
       </c>
       <c r="U162" t="n">
-        <v>354.44</v>
+        <v>177.22</v>
       </c>
       <c r="V162" t="n">
         <v>0</v>
@@ -26853,49 +26853,49 @@
         <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>378.54</v>
+        <v>189.27</v>
       </c>
       <c r="Y162" t="n">
         <v>0</v>
       </c>
       <c r="Z162" t="n">
-        <v>386.82</v>
+        <v>193.41</v>
       </c>
       <c r="AA162" t="n">
-        <v>377</v>
+        <v>188.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>384.58</v>
+        <v>192.29</v>
       </c>
       <c r="AC162" t="n">
-        <v>398.7</v>
+        <v>199.35</v>
       </c>
       <c r="AD162" t="n">
-        <v>395.94</v>
+        <v>197.97</v>
       </c>
       <c r="AE162" t="n">
-        <v>417.82</v>
+        <v>208.91</v>
       </c>
       <c r="AF162" t="n">
-        <v>404.2</v>
+        <v>202.1</v>
       </c>
       <c r="AG162" t="n">
-        <v>341.18</v>
+        <v>170.59</v>
       </c>
       <c r="AH162" t="n">
-        <v>366.66</v>
+        <v>183.33</v>
       </c>
       <c r="AI162" t="n">
-        <v>428.14</v>
+        <v>214.07</v>
       </c>
       <c r="AJ162" t="n">
-        <v>406.96</v>
+        <v>203.48</v>
       </c>
       <c r="AK162" t="n">
-        <v>422.12</v>
+        <v>211.06</v>
       </c>
       <c r="AL162" t="n">
-        <v>351.5</v>
+        <v>175.75</v>
       </c>
       <c r="AM162" t="n">
         <v>0</v>
@@ -26910,10 +26910,10 @@
         <v>0</v>
       </c>
       <c r="AQ162" t="n">
-        <v>426.08</v>
+        <v>213.04</v>
       </c>
       <c r="AR162" t="n">
-        <v>380.78</v>
+        <v>190.39</v>
       </c>
       <c r="AS162" t="n">
         <v>0</v>
@@ -26922,25 +26922,25 @@
         <v>0</v>
       </c>
       <c r="AU162" t="n">
-        <v>317.4</v>
+        <v>158.7</v>
       </c>
       <c r="AV162" t="n">
-        <v>366.48</v>
+        <v>183.24</v>
       </c>
       <c r="AW162" t="n">
         <v>0</v>
       </c>
       <c r="AX162" t="n">
-        <v>341.34</v>
+        <v>170.67</v>
       </c>
       <c r="AY162" t="n">
-        <v>350.3</v>
+        <v>175.15</v>
       </c>
       <c r="AZ162" t="n">
-        <v>376.48</v>
+        <v>188.24</v>
       </c>
       <c r="BA162" t="n">
-        <v>352.54</v>
+        <v>176.27</v>
       </c>
     </row>
     <row r="163">
@@ -26950,64 +26950,64 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>414.66</v>
+        <v>207.33</v>
       </c>
       <c r="C163" t="n">
-        <v>414.16</v>
+        <v>207.08</v>
       </c>
       <c r="D163" t="n">
-        <v>442.66</v>
+        <v>221.33</v>
       </c>
       <c r="E163" t="n">
-        <v>429.34</v>
+        <v>214.67</v>
       </c>
       <c r="F163" t="n">
-        <v>437.84</v>
+        <v>218.92</v>
       </c>
       <c r="G163" t="n">
-        <v>460.16</v>
+        <v>230.08</v>
       </c>
       <c r="H163" t="n">
-        <v>474.16</v>
+        <v>237.08</v>
       </c>
       <c r="I163" t="n">
-        <v>441</v>
+        <v>220.5</v>
       </c>
       <c r="J163" t="n">
-        <v>440.66</v>
+        <v>220.33</v>
       </c>
       <c r="K163" t="n">
-        <v>411.34</v>
+        <v>205.67</v>
       </c>
       <c r="L163" t="n">
-        <v>422.66</v>
+        <v>211.33</v>
       </c>
       <c r="M163" t="n">
-        <v>404.16</v>
+        <v>202.08</v>
       </c>
       <c r="N163" t="n">
-        <v>402.66</v>
+        <v>201.33</v>
       </c>
       <c r="O163" t="n">
-        <v>396.34</v>
+        <v>198.17</v>
       </c>
       <c r="P163" t="n">
-        <v>401.66</v>
+        <v>200.83</v>
       </c>
       <c r="Q163" t="n">
-        <v>388.84</v>
+        <v>194.42</v>
       </c>
       <c r="R163" t="n">
-        <v>378.84</v>
+        <v>189.42</v>
       </c>
       <c r="S163" t="n">
-        <v>341</v>
+        <v>170.5</v>
       </c>
       <c r="T163" t="n">
-        <v>421.5</v>
+        <v>210.75</v>
       </c>
       <c r="U163" t="n">
-        <v>391.66</v>
+        <v>195.83</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -27016,49 +27016,49 @@
         <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>355.84</v>
+        <v>177.92</v>
       </c>
       <c r="Y163" t="n">
         <v>0</v>
       </c>
       <c r="Z163" t="n">
-        <v>391.66</v>
+        <v>195.83</v>
       </c>
       <c r="AA163" t="n">
-        <v>335.16</v>
+        <v>167.58</v>
       </c>
       <c r="AB163" t="n">
-        <v>375.34</v>
+        <v>187.67</v>
       </c>
       <c r="AC163" t="n">
-        <v>374.16</v>
+        <v>187.08</v>
       </c>
       <c r="AD163" t="n">
-        <v>376.5</v>
+        <v>188.25</v>
       </c>
       <c r="AE163" t="n">
-        <v>407</v>
+        <v>203.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>396.66</v>
+        <v>198.33</v>
       </c>
       <c r="AG163" t="n">
-        <v>341.66</v>
+        <v>170.83</v>
       </c>
       <c r="AH163" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="AI163" t="n">
-        <v>421.16</v>
+        <v>210.58</v>
       </c>
       <c r="AJ163" t="n">
-        <v>351.5</v>
+        <v>175.75</v>
       </c>
       <c r="AK163" t="n">
-        <v>368.66</v>
+        <v>184.33</v>
       </c>
       <c r="AL163" t="n">
-        <v>345</v>
+        <v>172.5</v>
       </c>
       <c r="AM163" t="n">
         <v>0</v>
@@ -27073,10 +27073,10 @@
         <v>0</v>
       </c>
       <c r="AQ163" t="n">
-        <v>392.34</v>
+        <v>196.17</v>
       </c>
       <c r="AR163" t="n">
-        <v>373.16</v>
+        <v>186.58</v>
       </c>
       <c r="AS163" t="n">
         <v>0</v>
@@ -27085,25 +27085,25 @@
         <v>0</v>
       </c>
       <c r="AU163" t="n">
-        <v>326.16</v>
+        <v>163.08</v>
       </c>
       <c r="AV163" t="n">
-        <v>357.16</v>
+        <v>178.58</v>
       </c>
       <c r="AW163" t="n">
         <v>0</v>
       </c>
       <c r="AX163" t="n">
-        <v>324.84</v>
+        <v>162.42</v>
       </c>
       <c r="AY163" t="n">
-        <v>315.5</v>
+        <v>157.75</v>
       </c>
       <c r="AZ163" t="n">
-        <v>357</v>
+        <v>178.5</v>
       </c>
       <c r="BA163" t="n">
-        <v>331.66</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="164">
@@ -27113,64 +27113,64 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>506.5</v>
+        <v>253.25</v>
       </c>
       <c r="C164" t="n">
-        <v>483.94</v>
+        <v>241.97</v>
       </c>
       <c r="D164" t="n">
-        <v>458.8</v>
+        <v>229.4</v>
       </c>
       <c r="E164" t="n">
-        <v>471.54</v>
+        <v>235.77</v>
       </c>
       <c r="F164" t="n">
-        <v>500.48</v>
+        <v>250.24</v>
       </c>
       <c r="G164" t="n">
-        <v>517.36</v>
+        <v>258.68</v>
       </c>
       <c r="H164" t="n">
-        <v>527.34</v>
+        <v>263.67</v>
       </c>
       <c r="I164" t="n">
-        <v>504.62</v>
+        <v>252.31</v>
       </c>
       <c r="J164" t="n">
-        <v>447.6</v>
+        <v>223.8</v>
       </c>
       <c r="K164" t="n">
-        <v>481.36</v>
+        <v>240.68</v>
       </c>
       <c r="L164" t="n">
-        <v>509.26</v>
+        <v>254.63</v>
       </c>
       <c r="M164" t="n">
-        <v>488.26</v>
+        <v>244.13</v>
       </c>
       <c r="N164" t="n">
-        <v>482.56</v>
+        <v>241.28</v>
       </c>
       <c r="O164" t="n">
-        <v>470.52</v>
+        <v>235.26</v>
       </c>
       <c r="P164" t="n">
-        <v>492.38</v>
+        <v>246.19</v>
       </c>
       <c r="Q164" t="n">
-        <v>494.28</v>
+        <v>247.14</v>
       </c>
       <c r="R164" t="n">
-        <v>379.58</v>
+        <v>189.79</v>
       </c>
       <c r="S164" t="n">
-        <v>386.46</v>
+        <v>193.23</v>
       </c>
       <c r="T164" t="n">
-        <v>439.34</v>
+        <v>219.67</v>
       </c>
       <c r="U164" t="n">
-        <v>416.96</v>
+        <v>208.48</v>
       </c>
       <c r="V164" t="n">
         <v>0</v>
@@ -27179,49 +27179,49 @@
         <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>358.56</v>
+        <v>179.28</v>
       </c>
       <c r="Y164" t="n">
         <v>0</v>
       </c>
       <c r="Z164" t="n">
-        <v>477.06</v>
+        <v>238.53</v>
       </c>
       <c r="AA164" t="n">
-        <v>438.66</v>
+        <v>219.33</v>
       </c>
       <c r="AB164" t="n">
-        <v>481.18</v>
+        <v>240.59</v>
       </c>
       <c r="AC164" t="n">
-        <v>487.56</v>
+        <v>243.78</v>
       </c>
       <c r="AD164" t="n">
-        <v>489.12</v>
+        <v>244.56</v>
       </c>
       <c r="AE164" t="n">
-        <v>479.98</v>
+        <v>239.99</v>
       </c>
       <c r="AF164" t="n">
-        <v>474.12</v>
+        <v>237.06</v>
       </c>
       <c r="AG164" t="n">
-        <v>475.5</v>
+        <v>237.75</v>
       </c>
       <c r="AH164" t="n">
-        <v>435.2</v>
+        <v>217.6</v>
       </c>
       <c r="AI164" t="n">
-        <v>494.46</v>
+        <v>247.23</v>
       </c>
       <c r="AJ164" t="n">
-        <v>418.32</v>
+        <v>209.16</v>
       </c>
       <c r="AK164" t="n">
-        <v>427.98</v>
+        <v>213.99</v>
       </c>
       <c r="AL164" t="n">
-        <v>455.36</v>
+        <v>227.68</v>
       </c>
       <c r="AM164" t="n">
         <v>0</v>
@@ -27236,10 +27236,10 @@
         <v>0</v>
       </c>
       <c r="AQ164" t="n">
-        <v>454.66</v>
+        <v>227.33</v>
       </c>
       <c r="AR164" t="n">
-        <v>439.34</v>
+        <v>219.67</v>
       </c>
       <c r="AS164" t="n">
         <v>0</v>
@@ -27248,25 +27248,25 @@
         <v>0</v>
       </c>
       <c r="AU164" t="n">
-        <v>416.08</v>
+        <v>208.04</v>
       </c>
       <c r="AV164" t="n">
-        <v>450.88</v>
+        <v>225.44</v>
       </c>
       <c r="AW164" t="n">
         <v>0</v>
       </c>
       <c r="AX164" t="n">
-        <v>320.68</v>
+        <v>160.34</v>
       </c>
       <c r="AY164" t="n">
-        <v>345.66</v>
+        <v>172.83</v>
       </c>
       <c r="AZ164" t="n">
-        <v>398.52</v>
+        <v>199.26</v>
       </c>
       <c r="BA164" t="n">
-        <v>353.22</v>
+        <v>176.61</v>
       </c>
     </row>
     <row r="165">
@@ -27276,64 +27276,64 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>468.44</v>
+        <v>234.22</v>
       </c>
       <c r="C165" t="n">
-        <v>453.8</v>
+        <v>226.9</v>
       </c>
       <c r="D165" t="n">
-        <v>442.62</v>
+        <v>221.31</v>
       </c>
       <c r="E165" t="n">
-        <v>430.22</v>
+        <v>215.11</v>
       </c>
       <c r="F165" t="n">
-        <v>440.88</v>
+        <v>220.44</v>
       </c>
       <c r="G165" t="n">
-        <v>468.44</v>
+        <v>234.22</v>
       </c>
       <c r="H165" t="n">
-        <v>473.96</v>
+        <v>236.98</v>
       </c>
       <c r="I165" t="n">
-        <v>455.7</v>
+        <v>227.85</v>
       </c>
       <c r="J165" t="n">
-        <v>437.28</v>
+        <v>218.64</v>
       </c>
       <c r="K165" t="n">
-        <v>431.58</v>
+        <v>215.79</v>
       </c>
       <c r="L165" t="n">
-        <v>454.32</v>
+        <v>227.16</v>
       </c>
       <c r="M165" t="n">
-        <v>437.1</v>
+        <v>218.55</v>
       </c>
       <c r="N165" t="n">
-        <v>424.52</v>
+        <v>212.26</v>
       </c>
       <c r="O165" t="n">
-        <v>436.42</v>
+        <v>218.21</v>
       </c>
       <c r="P165" t="n">
-        <v>445.88</v>
+        <v>222.94</v>
       </c>
       <c r="Q165" t="n">
-        <v>443.98</v>
+        <v>221.99</v>
       </c>
       <c r="R165" t="n">
-        <v>359.94</v>
+        <v>179.97</v>
       </c>
       <c r="S165" t="n">
-        <v>415.92</v>
+        <v>207.96</v>
       </c>
       <c r="T165" t="n">
-        <v>415.4</v>
+        <v>207.7</v>
       </c>
       <c r="U165" t="n">
-        <v>397.66</v>
+        <v>198.83</v>
       </c>
       <c r="V165" t="n">
         <v>0</v>
@@ -27342,49 +27342,49 @@
         <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>340.14</v>
+        <v>170.07</v>
       </c>
       <c r="Y165" t="n">
         <v>0</v>
       </c>
       <c r="Z165" t="n">
-        <v>427.62</v>
+        <v>213.81</v>
       </c>
       <c r="AA165" t="n">
-        <v>406.28</v>
+        <v>203.14</v>
       </c>
       <c r="AB165" t="n">
-        <v>434.34</v>
+        <v>217.17</v>
       </c>
       <c r="AC165" t="n">
-        <v>449.5</v>
+        <v>224.75</v>
       </c>
       <c r="AD165" t="n">
-        <v>447.6</v>
+        <v>223.8</v>
       </c>
       <c r="AE165" t="n">
-        <v>429.36</v>
+        <v>214.68</v>
       </c>
       <c r="AF165" t="n">
-        <v>420.92</v>
+        <v>210.46</v>
       </c>
       <c r="AG165" t="n">
-        <v>417.46</v>
+        <v>208.73</v>
       </c>
       <c r="AH165" t="n">
-        <v>395.76</v>
+        <v>197.88</v>
       </c>
       <c r="AI165" t="n">
-        <v>449.68</v>
+        <v>224.84</v>
       </c>
       <c r="AJ165" t="n">
-        <v>412.82</v>
+        <v>206.41</v>
       </c>
       <c r="AK165" t="n">
-        <v>401.62</v>
+        <v>200.81</v>
       </c>
       <c r="AL165" t="n">
-        <v>425.22</v>
+        <v>212.61</v>
       </c>
       <c r="AM165" t="n">
         <v>0</v>
@@ -27399,10 +27399,10 @@
         <v>0</v>
       </c>
       <c r="AQ165" t="n">
-        <v>426.6</v>
+        <v>213.3</v>
       </c>
       <c r="AR165" t="n">
-        <v>417.98</v>
+        <v>208.99</v>
       </c>
       <c r="AS165" t="n">
         <v>0</v>
@@ -27411,25 +27411,25 @@
         <v>0</v>
       </c>
       <c r="AU165" t="n">
-        <v>389.4</v>
+        <v>194.7</v>
       </c>
       <c r="AV165" t="n">
-        <v>400.58</v>
+        <v>200.29</v>
       </c>
       <c r="AW165" t="n">
         <v>0</v>
       </c>
       <c r="AX165" t="n">
-        <v>295.18</v>
+        <v>147.59</v>
       </c>
       <c r="AY165" t="n">
-        <v>311.56</v>
+        <v>155.78</v>
       </c>
       <c r="AZ165" t="n">
-        <v>362.02</v>
+        <v>181.01</v>
       </c>
       <c r="BA165" t="n">
-        <v>312.42</v>
+        <v>156.21</v>
       </c>
     </row>
     <row r="166">
@@ -27439,64 +27439,64 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>300.66</v>
+        <v>150.33</v>
       </c>
       <c r="C166" t="n">
-        <v>312.66</v>
+        <v>156.33</v>
       </c>
       <c r="D166" t="n">
-        <v>319.66</v>
+        <v>159.83</v>
       </c>
       <c r="E166" t="n">
-        <v>328.5</v>
+        <v>164.25</v>
       </c>
       <c r="F166" t="n">
-        <v>311.16</v>
+        <v>155.58</v>
       </c>
       <c r="G166" t="n">
-        <v>338.16</v>
+        <v>169.08</v>
       </c>
       <c r="H166" t="n">
-        <v>347.34</v>
+        <v>173.67</v>
       </c>
       <c r="I166" t="n">
-        <v>302.66</v>
+        <v>151.33</v>
       </c>
       <c r="J166" t="n">
-        <v>298.34</v>
+        <v>149.17</v>
       </c>
       <c r="K166" t="n">
-        <v>289.66</v>
+        <v>144.83</v>
       </c>
       <c r="L166" t="n">
-        <v>312.34</v>
+        <v>156.17</v>
       </c>
       <c r="M166" t="n">
-        <v>294.34</v>
+        <v>147.17</v>
       </c>
       <c r="N166" t="n">
-        <v>302.16</v>
+        <v>151.08</v>
       </c>
       <c r="O166" t="n">
-        <v>311</v>
+        <v>155.5</v>
       </c>
       <c r="P166" t="n">
-        <v>292.66</v>
+        <v>146.33</v>
       </c>
       <c r="Q166" t="n">
-        <v>263.16</v>
+        <v>131.58</v>
       </c>
       <c r="R166" t="n">
-        <v>216.84</v>
+        <v>108.42</v>
       </c>
       <c r="S166" t="n">
-        <v>255.16</v>
+        <v>127.58</v>
       </c>
       <c r="T166" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="U166" t="n">
-        <v>280.66</v>
+        <v>140.33</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -27505,49 +27505,49 @@
         <v>0</v>
       </c>
       <c r="X166" t="n">
-        <v>297.16</v>
+        <v>148.58</v>
       </c>
       <c r="Y166" t="n">
         <v>0</v>
       </c>
       <c r="Z166" t="n">
-        <v>267.84</v>
+        <v>133.92</v>
       </c>
       <c r="AA166" t="n">
-        <v>244.5</v>
+        <v>122.25</v>
       </c>
       <c r="AB166" t="n">
-        <v>278.16</v>
+        <v>139.08</v>
       </c>
       <c r="AC166" t="n">
-        <v>296.16</v>
+        <v>148.08</v>
       </c>
       <c r="AD166" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="AE166" t="n">
-        <v>283.34</v>
+        <v>141.67</v>
       </c>
       <c r="AF166" t="n">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="AG166" t="n">
-        <v>239</v>
+        <v>119.5</v>
       </c>
       <c r="AH166" t="n">
-        <v>250.5</v>
+        <v>125.25</v>
       </c>
       <c r="AI166" t="n">
-        <v>290.16</v>
+        <v>145.08</v>
       </c>
       <c r="AJ166" t="n">
-        <v>268.34</v>
+        <v>134.17</v>
       </c>
       <c r="AK166" t="n">
-        <v>269</v>
+        <v>134.5</v>
       </c>
       <c r="AL166" t="n">
-        <v>278.84</v>
+        <v>139.42</v>
       </c>
       <c r="AM166" t="n">
         <v>0</v>
@@ -27562,10 +27562,10 @@
         <v>0</v>
       </c>
       <c r="AQ166" t="n">
-        <v>283.16</v>
+        <v>141.58</v>
       </c>
       <c r="AR166" t="n">
-        <v>296.84</v>
+        <v>148.42</v>
       </c>
       <c r="AS166" t="n">
         <v>0</v>
@@ -27574,25 +27574,25 @@
         <v>0</v>
       </c>
       <c r="AU166" t="n">
-        <v>266.66</v>
+        <v>133.33</v>
       </c>
       <c r="AV166" t="n">
-        <v>266.66</v>
+        <v>133.33</v>
       </c>
       <c r="AW166" t="n">
         <v>0</v>
       </c>
       <c r="AX166" t="n">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="AY166" t="n">
-        <v>232.66</v>
+        <v>116.33</v>
       </c>
       <c r="AZ166" t="n">
-        <v>234.34</v>
+        <v>117.17</v>
       </c>
       <c r="BA166" t="n">
-        <v>232</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167">
@@ -27602,64 +27602,64 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>247.66</v>
+        <v>123.83</v>
       </c>
       <c r="C167" t="n">
-        <v>263.84</v>
+        <v>131.92</v>
       </c>
       <c r="D167" t="n">
-        <v>264.88</v>
+        <v>132.44</v>
       </c>
       <c r="E167" t="n">
-        <v>243.86</v>
+        <v>121.93</v>
       </c>
       <c r="F167" t="n">
-        <v>224.76</v>
+        <v>112.38</v>
       </c>
       <c r="G167" t="n">
-        <v>238.02</v>
+        <v>119.01</v>
       </c>
       <c r="H167" t="n">
-        <v>254.88</v>
+        <v>127.44</v>
       </c>
       <c r="I167" t="n">
-        <v>221.48</v>
+        <v>110.74</v>
       </c>
       <c r="J167" t="n">
-        <v>254.88</v>
+        <v>127.44</v>
       </c>
       <c r="K167" t="n">
-        <v>189.44</v>
+        <v>94.72</v>
       </c>
       <c r="L167" t="n">
-        <v>220.1</v>
+        <v>110.05</v>
       </c>
       <c r="M167" t="n">
-        <v>202.7</v>
+        <v>101.35</v>
       </c>
       <c r="N167" t="n">
-        <v>217.18</v>
+        <v>108.59</v>
       </c>
       <c r="O167" t="n">
-        <v>234.22</v>
+        <v>117.11</v>
       </c>
       <c r="P167" t="n">
-        <v>214.94</v>
+        <v>107.47</v>
       </c>
       <c r="Q167" t="n">
-        <v>200.12</v>
+        <v>100.06</v>
       </c>
       <c r="R167" t="n">
-        <v>179.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="S167" t="n">
-        <v>209.76</v>
+        <v>104.88</v>
       </c>
       <c r="T167" t="n">
-        <v>248.18</v>
+        <v>124.09</v>
       </c>
       <c r="U167" t="n">
-        <v>227.86</v>
+        <v>113.93</v>
       </c>
       <c r="V167" t="n">
         <v>0</v>
@@ -27668,49 +27668,49 @@
         <v>0</v>
       </c>
       <c r="X167" t="n">
-        <v>257.12</v>
+        <v>128.56</v>
       </c>
       <c r="Y167" t="n">
         <v>0</v>
       </c>
       <c r="Z167" t="n">
-        <v>203.06</v>
+        <v>101.53</v>
       </c>
       <c r="AA167" t="n">
-        <v>184.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AB167" t="n">
-        <v>206.32</v>
+        <v>103.16</v>
       </c>
       <c r="AC167" t="n">
-        <v>217</v>
+        <v>108.5</v>
       </c>
       <c r="AD167" t="n">
-        <v>180.48</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="AE167" t="n">
-        <v>190.82</v>
+        <v>95.41</v>
       </c>
       <c r="AF167" t="n">
-        <v>140.02</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="AG167" t="n">
-        <v>165.16</v>
+        <v>82.58</v>
       </c>
       <c r="AH167" t="n">
-        <v>188.76</v>
+        <v>94.38</v>
       </c>
       <c r="AI167" t="n">
-        <v>198.22</v>
+        <v>99.11</v>
       </c>
       <c r="AJ167" t="n">
-        <v>179.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AK167" t="n">
-        <v>191.16</v>
+        <v>95.58</v>
       </c>
       <c r="AL167" t="n">
-        <v>213.22</v>
+        <v>106.61</v>
       </c>
       <c r="AM167" t="n">
         <v>0</v>
@@ -27725,10 +27725,10 @@
         <v>0</v>
       </c>
       <c r="AQ167" t="n">
-        <v>193.92</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="AR167" t="n">
-        <v>209.08</v>
+        <v>104.54</v>
       </c>
       <c r="AS167" t="n">
         <v>0</v>
@@ -27737,25 +27737,25 @@
         <v>0</v>
       </c>
       <c r="AU167" t="n">
-        <v>184.46</v>
+        <v>92.23</v>
       </c>
       <c r="AV167" t="n">
-        <v>180.84</v>
+        <v>90.42</v>
       </c>
       <c r="AW167" t="n">
         <v>0</v>
       </c>
       <c r="AX167" t="n">
-        <v>138.12</v>
+        <v>69.06</v>
       </c>
       <c r="AY167" t="n">
-        <v>146.22</v>
+        <v>73.11</v>
       </c>
       <c r="AZ167" t="n">
-        <v>151.72</v>
+        <v>75.86</v>
       </c>
       <c r="BA167" t="n">
-        <v>146.04</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="168">
@@ -27765,64 +27765,64 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>182.84</v>
+        <v>91.42</v>
       </c>
       <c r="C168" t="n">
-        <v>207.84</v>
+        <v>103.92</v>
       </c>
       <c r="D168" t="n">
-        <v>200.16</v>
+        <v>100.08</v>
       </c>
       <c r="E168" t="n">
-        <v>208.84</v>
+        <v>104.42</v>
       </c>
       <c r="F168" t="n">
-        <v>171</v>
+        <v>85.5</v>
       </c>
       <c r="G168" t="n">
-        <v>163.66</v>
+        <v>81.83</v>
       </c>
       <c r="H168" t="n">
-        <v>187.66</v>
+        <v>93.83</v>
       </c>
       <c r="I168" t="n">
-        <v>177.66</v>
+        <v>88.83</v>
       </c>
       <c r="J168" t="n">
-        <v>199</v>
+        <v>99.5</v>
       </c>
       <c r="K168" t="n">
-        <v>122.66</v>
+        <v>61.33</v>
       </c>
       <c r="L168" t="n">
-        <v>143.34</v>
+        <v>71.67</v>
       </c>
       <c r="M168" t="n">
-        <v>130.84</v>
+        <v>65.42</v>
       </c>
       <c r="N168" t="n">
-        <v>141.34</v>
+        <v>70.67</v>
       </c>
       <c r="O168" t="n">
-        <v>171</v>
+        <v>85.5</v>
       </c>
       <c r="P168" t="n">
-        <v>132.16</v>
+        <v>66.08</v>
       </c>
       <c r="Q168" t="n">
-        <v>128.66</v>
+        <v>64.33</v>
       </c>
       <c r="R168" t="n">
-        <v>159.66</v>
+        <v>79.83</v>
       </c>
       <c r="S168" t="n">
-        <v>156.66</v>
+        <v>78.33</v>
       </c>
       <c r="T168" t="n">
-        <v>178.5</v>
+        <v>89.25</v>
       </c>
       <c r="U168" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="V168" t="n">
         <v>0</v>
@@ -27831,49 +27831,49 @@
         <v>0</v>
       </c>
       <c r="X168" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="Y168" t="n">
         <v>0</v>
       </c>
       <c r="Z168" t="n">
-        <v>115</v>
+        <v>57.5</v>
       </c>
       <c r="AA168" t="n">
-        <v>109.66</v>
+        <v>54.83</v>
       </c>
       <c r="AB168" t="n">
-        <v>121.5</v>
+        <v>60.75</v>
       </c>
       <c r="AC168" t="n">
-        <v>151</v>
+        <v>75.5</v>
       </c>
       <c r="AD168" t="n">
-        <v>123</v>
+        <v>61.5</v>
       </c>
       <c r="AE168" t="n">
-        <v>118.34</v>
+        <v>59.17</v>
       </c>
       <c r="AF168" t="n">
-        <v>105.5</v>
+        <v>52.75</v>
       </c>
       <c r="AG168" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="AH168" t="n">
-        <v>97.84</v>
+        <v>48.92</v>
       </c>
       <c r="AI168" t="n">
-        <v>119.5</v>
+        <v>59.75</v>
       </c>
       <c r="AJ168" t="n">
-        <v>129.84</v>
+        <v>64.92</v>
       </c>
       <c r="AK168" t="n">
-        <v>135.34</v>
+        <v>67.67</v>
       </c>
       <c r="AL168" t="n">
-        <v>152.66</v>
+        <v>76.33</v>
       </c>
       <c r="AM168" t="n">
         <v>0</v>
@@ -27888,10 +27888,10 @@
         <v>0</v>
       </c>
       <c r="AQ168" t="n">
-        <v>127.34</v>
+        <v>63.67</v>
       </c>
       <c r="AR168" t="n">
-        <v>132.5</v>
+        <v>66.25</v>
       </c>
       <c r="AS168" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="AU168" t="n">
-        <v>89.84</v>
+        <v>44.92</v>
       </c>
       <c r="AV168" t="n">
-        <v>101.5</v>
+        <v>50.75</v>
       </c>
       <c r="AW168" t="n">
         <v>0</v>
       </c>
       <c r="AX168" t="n">
-        <v>66.16</v>
+        <v>33.08</v>
       </c>
       <c r="AY168" t="n">
-        <v>80.84</v>
+        <v>40.42</v>
       </c>
       <c r="AZ168" t="n">
-        <v>74.16</v>
+        <v>37.08</v>
       </c>
       <c r="BA168" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169">
@@ -27928,64 +27928,64 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>144.84</v>
+        <v>72.42</v>
       </c>
       <c r="C169" t="n">
-        <v>156.9</v>
+        <v>78.45</v>
       </c>
       <c r="D169" t="n">
-        <v>153.62</v>
+        <v>76.81</v>
       </c>
       <c r="E169" t="n">
-        <v>165.5</v>
+        <v>82.75</v>
       </c>
       <c r="F169" t="n">
-        <v>136.4</v>
+        <v>68.2</v>
       </c>
       <c r="G169" t="n">
-        <v>126.58</v>
+        <v>63.29</v>
       </c>
       <c r="H169" t="n">
-        <v>162.76</v>
+        <v>81.38</v>
       </c>
       <c r="I169" t="n">
-        <v>145.52</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="J169" t="n">
-        <v>157.76</v>
+        <v>78.88</v>
       </c>
       <c r="K169" t="n">
-        <v>100.76</v>
+        <v>50.38</v>
       </c>
       <c r="L169" t="n">
-        <v>119.18</v>
+        <v>59.59</v>
       </c>
       <c r="M169" t="n">
-        <v>115.04</v>
+        <v>57.52</v>
       </c>
       <c r="N169" t="n">
-        <v>116.42</v>
+        <v>58.21</v>
       </c>
       <c r="O169" t="n">
-        <v>137.44</v>
+        <v>68.72</v>
       </c>
       <c r="P169" t="n">
-        <v>124.34</v>
+        <v>62.17</v>
       </c>
       <c r="Q169" t="n">
-        <v>115.38</v>
+        <v>57.69</v>
       </c>
       <c r="R169" t="n">
-        <v>124.18</v>
+        <v>62.09</v>
       </c>
       <c r="S169" t="n">
-        <v>127.44</v>
+        <v>63.72</v>
       </c>
       <c r="T169" t="n">
-        <v>144.66</v>
+        <v>72.33</v>
       </c>
       <c r="U169" t="n">
-        <v>135.72</v>
+        <v>67.86</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -27994,49 +27994,49 @@
         <v>0</v>
       </c>
       <c r="X169" t="n">
-        <v>181.7</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="Y169" t="n">
         <v>0</v>
       </c>
       <c r="Z169" t="n">
-        <v>103.34</v>
+        <v>51.67</v>
       </c>
       <c r="AA169" t="n">
-        <v>112.12</v>
+        <v>56.06</v>
       </c>
       <c r="AB169" t="n">
-        <v>96.09999999999999</v>
+        <v>48.05</v>
       </c>
       <c r="AC169" t="n">
-        <v>136.74</v>
+        <v>68.37</v>
       </c>
       <c r="AD169" t="n">
-        <v>90.58</v>
+        <v>45.29</v>
       </c>
       <c r="AE169" t="n">
-        <v>81.12</v>
+        <v>40.56</v>
       </c>
       <c r="AF169" t="n">
-        <v>76.98</v>
+        <v>38.49</v>
       </c>
       <c r="AG169" t="n">
-        <v>93.86</v>
+        <v>46.93</v>
       </c>
       <c r="AH169" t="n">
-        <v>92.31999999999999</v>
+        <v>46.16</v>
       </c>
       <c r="AI169" t="n">
-        <v>90.94</v>
+        <v>45.47</v>
       </c>
       <c r="AJ169" t="n">
-        <v>111.42</v>
+        <v>55.71</v>
       </c>
       <c r="AK169" t="n">
-        <v>112.28</v>
+        <v>56.14</v>
       </c>
       <c r="AL169" t="n">
-        <v>124.18</v>
+        <v>62.09</v>
       </c>
       <c r="AM169" t="n">
         <v>0</v>
@@ -28051,10 +28051,10 @@
         <v>0</v>
       </c>
       <c r="AQ169" t="n">
-        <v>103.68</v>
+        <v>51.84</v>
       </c>
       <c r="AR169" t="n">
-        <v>103.5</v>
+        <v>51.75</v>
       </c>
       <c r="AS169" t="n">
         <v>0</v>
@@ -28063,25 +28063,25 @@
         <v>0</v>
       </c>
       <c r="AU169" t="n">
-        <v>79.06</v>
+        <v>39.53</v>
       </c>
       <c r="AV169" t="n">
-        <v>85.26000000000001</v>
+        <v>42.63</v>
       </c>
       <c r="AW169" t="n">
         <v>0</v>
       </c>
       <c r="AX169" t="n">
-        <v>64.92</v>
+        <v>32.46</v>
       </c>
       <c r="AY169" t="n">
-        <v>50.12</v>
+        <v>25.06</v>
       </c>
       <c r="AZ169" t="n">
-        <v>52.52</v>
+        <v>26.26</v>
       </c>
       <c r="BA169" t="n">
-        <v>82.16</v>
+        <v>41.08</v>
       </c>
     </row>
   </sheetData>
